--- a/META/META.xlsx
+++ b/META/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/META/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1662" documentId="11_57854DD52154BDAB58DFF53FDE1A27A706F33C75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E74C91-40B4-4950-96EC-B5E6D38A3732}"/>
+  <xr:revisionPtr revIDLastSave="1665" documentId="11_57854DD52154BDAB58DFF53FDE1A27A706F33C75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4648F3E3-DDCF-4C95-803E-13E7E22969F2}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="410" windowWidth="19200" windowHeight="21600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3954,7 +3954,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -4140,7 +4140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4199,21 +4199,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4656,10 +4647,10 @@
   <dimension ref="B1:BZ156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="Z112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="BB17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO154" sqref="AO154"/>
+      <selection pane="bottomRight" activeCell="BK41" sqref="BK41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4891,6 +4882,9 @@
       <c r="BM2" s="7">
         <v>44959</v>
       </c>
+      <c r="BN2" s="7">
+        <v>45324</v>
+      </c>
     </row>
     <row r="3" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -5263,107 +5257,107 @@
       </c>
       <c r="AQ6" s="44"/>
     </row>
-    <row r="7" spans="2:69" s="64" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="64" t="s">
+    <row r="7" spans="2:69" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>1238</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="57">
         <v>105.5</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="57">
         <v>115.21</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="57">
         <v>123.99</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="57">
         <v>122.9</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="58">
         <v>133.63999999999999</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="57">
         <v>148.58000000000001</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="57">
         <v>166.63</v>
       </c>
-      <c r="R7" s="64">
+      <c r="R7" s="57">
         <v>176.74</v>
       </c>
-      <c r="S7" s="65">
+      <c r="S7" s="58">
         <v>179.55</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="57">
         <v>180.7</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="57">
         <v>181.03</v>
       </c>
-      <c r="V7" s="64">
+      <c r="V7" s="57">
         <v>144.87</v>
       </c>
-      <c r="W7" s="65">
+      <c r="W7" s="58">
         <v>158.58000000000001</v>
       </c>
-      <c r="X7" s="64">
+      <c r="X7" s="57">
         <v>182.71</v>
       </c>
-      <c r="Y7" s="64">
+      <c r="Y7" s="57">
         <v>190.07</v>
       </c>
-      <c r="Z7" s="64">
+      <c r="Z7" s="57">
         <v>193.45</v>
       </c>
-      <c r="AA7" s="65">
+      <c r="AA7" s="58">
         <v>195.93</v>
       </c>
-      <c r="AB7" s="64">
+      <c r="AB7" s="57">
         <v>208.12</v>
       </c>
-      <c r="AC7" s="64">
+      <c r="AC7" s="57">
         <v>257.41000000000003</v>
       </c>
-      <c r="AD7" s="64">
+      <c r="AD7" s="57">
         <v>273.95</v>
       </c>
-      <c r="AE7" s="65">
+      <c r="AE7" s="58">
         <v>269.32</v>
       </c>
-      <c r="AF7" s="64">
+      <c r="AF7" s="57">
         <v>320.39999999999998</v>
       </c>
-      <c r="AG7" s="64">
+      <c r="AG7" s="57">
         <v>359.97</v>
       </c>
-      <c r="AH7" s="64">
+      <c r="AH7" s="57">
         <v>332.11</v>
       </c>
-      <c r="AI7" s="65">
+      <c r="AI7" s="58">
         <v>251.3</v>
       </c>
-      <c r="AJ7" s="64">
+      <c r="AJ7" s="57">
         <v>193.38</v>
       </c>
-      <c r="AK7" s="64">
+      <c r="AK7" s="57">
         <v>162.07</v>
       </c>
-      <c r="AL7" s="64">
+      <c r="AL7" s="57">
         <v>117.71</v>
       </c>
-      <c r="AM7" s="65">
+      <c r="AM7" s="58">
         <v>170.3</v>
       </c>
-      <c r="AN7" s="64">
+      <c r="AN7" s="57">
         <v>246.21</v>
       </c>
-      <c r="AO7" s="64">
+      <c r="AO7" s="57">
         <v>301.08</v>
       </c>
-      <c r="AP7" s="64">
+      <c r="AP7" s="57">
         <v>325.64999999999998</v>
       </c>
-      <c r="AQ7" s="65"/>
+      <c r="AQ7" s="58"/>
     </row>
     <row r="8" spans="2:69" x14ac:dyDescent="0.35">
       <c r="O8" s="21"/>
@@ -5492,6 +5486,9 @@
       <c r="BM10" s="8">
         <v>2.96</v>
       </c>
+      <c r="BN10" s="8">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="11" spans="2:69" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
@@ -5571,52 +5568,55 @@
       <c r="BM11" s="8">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="12" spans="2:69" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+      <c r="BN11" s="8">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:69" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="55" t="s">
         <v>1270</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AE12" s="61">
+      <c r="O12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AE12" s="56">
         <v>7.75</v>
       </c>
-      <c r="AF12" s="60">
+      <c r="AF12" s="55">
         <v>8.36</v>
       </c>
-      <c r="AG12" s="60">
+      <c r="AG12" s="55">
         <v>8.18</v>
       </c>
-      <c r="AH12" s="60">
+      <c r="AH12" s="55">
         <v>9.39</v>
       </c>
-      <c r="AI12" s="61">
+      <c r="AI12" s="56">
         <v>7.72</v>
       </c>
-      <c r="AJ12" s="60">
+      <c r="AJ12" s="55">
         <v>7.91</v>
       </c>
-      <c r="AK12" s="60">
+      <c r="AK12" s="55">
         <v>7.53</v>
       </c>
-      <c r="AL12" s="60">
+      <c r="AL12" s="55">
         <v>8.6300000000000008</v>
       </c>
-      <c r="AM12" s="61">
+      <c r="AM12" s="56">
         <v>7.59</v>
       </c>
-      <c r="AN12" s="60">
+      <c r="AN12" s="55">
         <v>8.32</v>
       </c>
-      <c r="AO12" s="60">
+      <c r="AO12" s="55">
         <v>8.7100000000000009</v>
       </c>
-      <c r="AP12" s="60">
+      <c r="AP12" s="55">
         <v>10.1</v>
       </c>
-      <c r="AQ12" s="61"/>
+      <c r="AQ12" s="56"/>
     </row>
     <row r="13" spans="2:69" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="O13" s="35"/>
@@ -6014,15 +6014,15 @@
         <f>SUM(AM16:AM19)</f>
         <v>2037</v>
       </c>
-      <c r="AN20" s="59">
+      <c r="AN20" s="9">
         <f t="shared" ref="AN20:AP20" si="3">SUM(AN16:AN19)</f>
         <v>2065</v>
       </c>
-      <c r="AO20" s="59">
+      <c r="AO20" s="9">
         <f t="shared" si="3"/>
         <v>2085</v>
       </c>
-      <c r="AP20" s="59">
+      <c r="AP20" s="9">
         <f t="shared" si="3"/>
         <v>2110</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="AO31" s="9">
         <v>33643</v>
       </c>
-      <c r="AP31" s="63">
+      <c r="AP31" s="9">
         <f>BN31-AO31-AN31-AM31</f>
         <v>38706</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="AO32" s="10">
         <v>293</v>
       </c>
-      <c r="AP32" s="62">
+      <c r="AP32" s="51">
         <f>BN32-AO32-AN32-AM32</f>
         <v>335</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="AO35" s="9">
         <v>17490</v>
       </c>
-      <c r="AP35" s="63">
+      <c r="AP35" s="9">
         <f>BN35-AO35-AN35-AM35</f>
         <v>21031</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="AO38" s="9">
         <v>210</v>
       </c>
-      <c r="AP38" s="63">
+      <c r="AP38" s="9">
         <f>BN38-AO38-AN38-AM38</f>
         <v>1071</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="AO40" s="9">
         <v>-3742</v>
       </c>
-      <c r="AP40" s="63">
+      <c r="AP40" s="9">
         <f>BN40-AO40-AN40-AM40</f>
         <v>-4647</v>
       </c>
@@ -8673,7 +8673,7 @@
       <c r="AO48" s="9">
         <v>12908</v>
       </c>
-      <c r="AP48" s="63">
+      <c r="AP48" s="9">
         <f>BN48-AO48-AN48-AM48</f>
         <v>16127</v>
       </c>
@@ -8784,7 +8784,7 @@
       <c r="AO49" s="9">
         <v>7578</v>
       </c>
-      <c r="AP49" s="63">
+      <c r="AP49" s="9">
         <f>BN49-AO49-AN49-AM49</f>
         <v>9358</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="AO50" s="9">
         <v>9790</v>
       </c>
-      <c r="AP50" s="63">
+      <c r="AP50" s="9">
         <f>BN50-AO50-AN50-AM50</f>
         <v>10521</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="AO51" s="10">
         <v>3870</v>
       </c>
-      <c r="AP51" s="62">
+      <c r="AP51" s="51">
         <f>BN51-AO51-AN51-AM51</f>
         <v>4106</v>
       </c>
@@ -9521,7 +9521,7 @@
       <c r="AO56" s="10">
         <v>6210</v>
       </c>
-      <c r="AP56" s="62">
+      <c r="AP56" s="51">
         <f>BN56-AO56-AN56-AM56</f>
         <v>7696</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="AO60" s="9">
         <v>9241</v>
       </c>
-      <c r="AP60" s="63">
+      <c r="AP60" s="9">
         <f>BN60-AO60-AN60-AM60</f>
         <v>10517</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="AO61" s="9">
         <v>2877</v>
       </c>
-      <c r="AP61" s="63">
+      <c r="AP61" s="9">
         <f>BN61-AO61-AN61-AM61</f>
         <v>3226</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="AO62" s="10">
         <v>2070</v>
       </c>
-      <c r="AP62" s="63">
+      <c r="AP62" s="9">
         <f>BN62-AO62-AN62-AM62</f>
         <v>2289</v>
       </c>
@@ -10759,187 +10759,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:69" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="55" t="s">
+    <row r="65" spans="2:69" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="54" t="s">
         <v>1280</v>
       </c>
-      <c r="O65" s="55">
+      <c r="O65" s="54">
         <f>O64/O55</f>
         <v>0.41421812749003983</v>
       </c>
-      <c r="P65" s="55">
+      <c r="P65" s="54">
         <f t="shared" ref="P65:AR65" si="137">P64/P55</f>
         <v>0.47215963952365625</v>
       </c>
-      <c r="Q65" s="55">
+      <c r="Q65" s="54">
         <f t="shared" si="137"/>
         <v>0.49593338497288925</v>
       </c>
-      <c r="R65" s="55">
+      <c r="R65" s="54">
         <f t="shared" si="137"/>
         <v>0.566836262719704</v>
       </c>
-      <c r="S65" s="55">
+      <c r="S65" s="54">
         <f t="shared" si="137"/>
         <v>0.45537355841551064</v>
       </c>
-      <c r="T65" s="55">
+      <c r="T65" s="54">
         <f t="shared" si="137"/>
         <v>0.44312599198851182</v>
       </c>
-      <c r="U65" s="55">
+      <c r="U65" s="54">
         <f t="shared" si="137"/>
         <v>0.42114081736723247</v>
       </c>
-      <c r="V65" s="55">
+      <c r="V65" s="54">
         <f t="shared" si="137"/>
         <v>0.46233889085964291</v>
       </c>
-      <c r="W65" s="55">
+      <c r="W65" s="54">
         <f t="shared" si="137"/>
         <v>0.22000397957153281</v>
       </c>
-      <c r="X65" s="55">
+      <c r="X65" s="54">
         <f t="shared" si="137"/>
         <v>0.27395475541869002</v>
       </c>
-      <c r="Y65" s="55">
+      <c r="Y65" s="54">
         <f t="shared" si="137"/>
         <v>0.40703602991162474</v>
       </c>
-      <c r="Z65" s="55">
+      <c r="Z65" s="54">
         <f t="shared" si="137"/>
         <v>0.42016886443411439</v>
       </c>
-      <c r="AA65" s="55">
+      <c r="AA65" s="54">
         <f t="shared" si="137"/>
         <v>0.33224333314540228</v>
       </c>
-      <c r="AB65" s="55">
+      <c r="AB65" s="54">
         <f t="shared" si="137"/>
         <v>0.31909883876491679</v>
       </c>
-      <c r="AC65" s="55">
+      <c r="AC65" s="54">
         <f t="shared" si="137"/>
         <v>0.37447601304145317</v>
       </c>
-      <c r="AD65" s="55">
+      <c r="AD65" s="54">
         <f t="shared" si="137"/>
         <v>0.45509600655480748</v>
       </c>
-      <c r="AE65" s="55">
+      <c r="AE65" s="54">
         <f t="shared" si="137"/>
         <v>0.43475602766420846</v>
       </c>
-      <c r="AF65" s="55">
+      <c r="AF65" s="54">
         <f t="shared" si="137"/>
         <v>0.42531898063761736</v>
       </c>
-      <c r="AG65" s="55">
+      <c r="AG65" s="54">
         <f t="shared" si="137"/>
         <v>0.35928990003447087</v>
       </c>
-      <c r="AH65" s="55">
+      <c r="AH65" s="54">
         <f t="shared" si="137"/>
         <v>0.37376377297971547</v>
       </c>
-      <c r="AI65" s="55">
+      <c r="AI65" s="54">
         <f t="shared" si="137"/>
         <v>0.30543213415508097</v>
       </c>
-      <c r="AJ65" s="55">
+      <c r="AJ65" s="54">
         <f t="shared" si="137"/>
         <v>0.28998681562695161</v>
       </c>
-      <c r="AK65" s="55">
+      <c r="AK65" s="54">
         <f t="shared" si="137"/>
         <v>0.20437324096124701</v>
       </c>
-      <c r="AL65" s="55">
+      <c r="AL65" s="54">
         <f t="shared" si="137"/>
         <v>0.19891186071817193</v>
       </c>
-      <c r="AM65" s="55">
+      <c r="AM65" s="54">
         <f t="shared" si="137"/>
         <v>0.25229533950078548</v>
       </c>
-      <c r="AN65" s="55">
+      <c r="AN65" s="54">
         <f t="shared" si="137"/>
         <v>0.29350917216163003</v>
       </c>
-      <c r="AO65" s="55">
+      <c r="AO65" s="54">
         <f t="shared" si="137"/>
         <v>0.40262402624026239</v>
       </c>
-      <c r="AP65" s="55">
+      <c r="AP65" s="54">
         <f t="shared" si="137"/>
         <v>0.40845632229756679</v>
       </c>
-      <c r="AQ65" s="55" t="e">
+      <c r="AQ65" s="54" t="e">
         <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR65" s="55" t="e">
+      <c r="AR65" s="54" t="e">
         <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC65" s="55">
+      <c r="BC65" s="54">
         <f>BC64/BC55</f>
         <v>0.10571821575948123</v>
       </c>
-      <c r="BD65" s="55">
+      <c r="BD65" s="54">
         <f t="shared" ref="BD65:BQ65" si="138">BD64/BD55</f>
         <v>0.35619918699186992</v>
       </c>
-      <c r="BE65" s="55">
+      <c r="BE65" s="54">
         <f t="shared" si="138"/>
         <v>0.40060965827049577</v>
       </c>
-      <c r="BF65" s="55">
+      <c r="BF65" s="54">
         <f t="shared" si="138"/>
         <v>0.34722222222222221</v>
       </c>
-      <c r="BG65" s="55">
+      <c r="BG65" s="54">
         <f t="shared" si="138"/>
         <v>0.44963456111151312</v>
       </c>
-      <c r="BH65" s="55">
+      <c r="BH65" s="54">
         <f t="shared" si="138"/>
         <v>0.49696209381841439</v>
       </c>
-      <c r="BI65" s="55">
+      <c r="BI65" s="54">
         <f t="shared" si="138"/>
         <v>0.44616569361366809</v>
       </c>
-      <c r="BJ65" s="55">
+      <c r="BJ65" s="54">
         <f t="shared" si="138"/>
         <v>0.33927889443682191</v>
       </c>
-      <c r="BK65" s="55">
+      <c r="BK65" s="54">
         <f t="shared" si="138"/>
         <v>0.3800500203571221</v>
       </c>
-      <c r="BL65" s="55">
+      <c r="BL65" s="54">
         <f t="shared" si="138"/>
         <v>0.39645040660058173</v>
       </c>
-      <c r="BM65" s="55">
+      <c r="BM65" s="54">
         <f t="shared" si="138"/>
         <v>0.24821411726367604</v>
       </c>
-      <c r="BN65" s="55">
+      <c r="BN65" s="54">
         <f t="shared" si="138"/>
         <v>0.34655527716416362</v>
       </c>
-      <c r="BO65" s="55" t="e">
+      <c r="BO65" s="54" t="e">
         <f t="shared" si="138"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP65" s="55" t="e">
+      <c r="BP65" s="54" t="e">
         <f t="shared" si="138"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ65" s="55" t="e">
+      <c r="BQ65" s="54" t="e">
         <f t="shared" si="138"/>
         <v>#DIV/0!</v>
       </c>
@@ -11035,7 +11035,7 @@
       <c r="AO66" s="10">
         <v>272</v>
       </c>
-      <c r="AP66" s="62">
+      <c r="AP66" s="51">
         <f>BN66-AO66-AN66-AM66</f>
         <v>424</v>
       </c>
@@ -11373,7 +11373,7 @@
       <c r="AO68" s="9">
         <v>2437</v>
       </c>
-      <c r="AP68" s="63">
+      <c r="AP68" s="9">
         <f>BN68-AO68-AN68-AM68</f>
         <v>2790</v>
       </c>
@@ -11506,7 +11506,7 @@
       <c r="AO69" s="10">
         <v>0</v>
       </c>
-      <c r="AP69" s="62">
+      <c r="AP69" s="51">
         <f>BN69-AO69-AN69-AM69</f>
         <v>0</v>
       </c>
@@ -11753,126 +11753,126 @@
       </c>
     </row>
     <row r="71" spans="2:69" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="O71" s="58">
+      <c r="O71" s="3">
         <f>O70/O55</f>
         <v>0.38085159362549803</v>
       </c>
-      <c r="P71" s="58">
+      <c r="P71" s="3">
         <f t="shared" ref="P71:AR71" si="172">P70/P55</f>
         <v>0.41733719557987342</v>
       </c>
-      <c r="Q71" s="58">
+      <c r="Q71" s="3">
         <f t="shared" si="172"/>
         <v>0.45546088303640586</v>
       </c>
-      <c r="R71" s="58">
+      <c r="R71" s="3">
         <f t="shared" si="172"/>
         <v>0.32901634289238357</v>
       </c>
-      <c r="S71" s="58">
+      <c r="S71" s="3">
         <f t="shared" si="172"/>
         <v>0.41676416513454789</v>
       </c>
-      <c r="T71" s="58">
+      <c r="T71" s="3">
         <f t="shared" si="172"/>
         <v>0.38591187363011109</v>
       </c>
-      <c r="U71" s="58">
+      <c r="U71" s="3">
         <f t="shared" si="172"/>
         <v>0.37422597799956292</v>
       </c>
-      <c r="V71" s="58">
+      <c r="V71" s="3">
         <f t="shared" si="172"/>
         <v>0.40682275038429705</v>
       </c>
-      <c r="W71" s="58">
+      <c r="W71" s="3">
         <f t="shared" si="172"/>
         <v>0.16110632088611793</v>
       </c>
-      <c r="X71" s="58">
+      <c r="X71" s="3">
         <f t="shared" si="172"/>
         <v>0.15492123652730072</v>
       </c>
-      <c r="Y71" s="58">
+      <c r="Y71" s="3">
         <f t="shared" si="172"/>
         <v>0.34506004985270788</v>
       </c>
-      <c r="Z71" s="58">
+      <c r="Z71" s="3">
         <f t="shared" si="172"/>
         <v>0.34859121525471964</v>
       </c>
-      <c r="AA71" s="58">
+      <c r="AA71" s="3">
         <f t="shared" si="172"/>
         <v>0.27637142696059086</v>
       </c>
-      <c r="AB71" s="58">
+      <c r="AB71" s="3">
         <f t="shared" si="172"/>
         <v>0.27709102584684542</v>
       </c>
-      <c r="AC71" s="58">
+      <c r="AC71" s="3">
         <f t="shared" si="172"/>
         <v>0.3654401490451793</v>
       </c>
-      <c r="AD71" s="58">
+      <c r="AD71" s="3">
         <f t="shared" si="172"/>
         <v>0.39970075879021055</v>
       </c>
-      <c r="AE71" s="58">
+      <c r="AE71" s="3">
         <f t="shared" si="172"/>
         <v>0.36288257995491191</v>
       </c>
-      <c r="AF71" s="58">
+      <c r="AF71" s="3">
         <f t="shared" si="172"/>
         <v>0.35746466279189737</v>
       </c>
-      <c r="AG71" s="58">
+      <c r="AG71" s="3">
         <f t="shared" si="172"/>
         <v>0.31692519820751464</v>
       </c>
-      <c r="AH71" s="58">
+      <c r="AH71" s="3">
         <f t="shared" si="172"/>
         <v>0.30545573342045085</v>
       </c>
-      <c r="AI71" s="58">
+      <c r="AI71" s="3">
         <f t="shared" si="172"/>
         <v>0.26748602551239786</v>
       </c>
-      <c r="AJ71" s="58">
+      <c r="AJ71" s="3">
         <f t="shared" si="172"/>
         <v>0.23201026993269031</v>
       </c>
-      <c r="AK71" s="58">
+      <c r="AK71" s="3">
         <f t="shared" si="172"/>
         <v>0.15858410911452694</v>
       </c>
-      <c r="AL71" s="58">
+      <c r="AL71" s="3">
         <f t="shared" si="172"/>
         <v>0.1446603450956008</v>
       </c>
-      <c r="AM71" s="58">
+      <c r="AM71" s="3">
         <f t="shared" si="172"/>
         <v>0.19930179787048349</v>
       </c>
-      <c r="AN71" s="58">
+      <c r="AN71" s="3">
         <f t="shared" si="172"/>
         <v>0.24338260570642833</v>
       </c>
-      <c r="AO71" s="58">
+      <c r="AO71" s="3">
         <f t="shared" si="172"/>
         <v>0.33921982076963625</v>
       </c>
-      <c r="AP71" s="58">
+      <c r="AP71" s="3">
         <f t="shared" si="172"/>
         <v>0.34947147985640209</v>
       </c>
-      <c r="AQ71" s="58" t="e">
+      <c r="AQ71" s="3" t="e">
         <f t="shared" si="172"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR71" s="58" t="e">
+      <c r="AR71" s="3" t="e">
         <f t="shared" si="172"/>
         <v>#DIV/0!</v>
       </c>
@@ -11938,10 +11938,10 @@
       </c>
     </row>
     <row r="72" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="O72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="W72" s="56"/>
-      <c r="AA72" s="56"/>
+      <c r="O72"/>
+      <c r="S72"/>
+      <c r="W72"/>
+      <c r="AA72"/>
     </row>
     <row r="73" spans="2:69" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
@@ -12358,7 +12358,7 @@
         <v>68</v>
       </c>
       <c r="M75" s="9" t="e">
-        <f t="shared" ref="M75:V75" si="180">M70/M77</f>
+        <f t="shared" ref="M75:U75" si="180">M70/M77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N75" s="9" t="e">
@@ -13698,7 +13698,7 @@
         <v>6142</v>
       </c>
       <c r="AP89" s="9">
-        <f>BN89</f>
+        <f t="shared" ref="AP89:AP94" si="195">BN89</f>
         <v>6141</v>
       </c>
       <c r="AQ89" s="18"/>
@@ -13847,7 +13847,7 @@
         <v>91772</v>
       </c>
       <c r="AP90" s="9">
-        <f>BN90</f>
+        <f t="shared" si="195"/>
         <v>96587</v>
       </c>
       <c r="AQ90" s="18"/>
@@ -13996,7 +13996,7 @@
         <v>13033</v>
       </c>
       <c r="AP91" s="9">
-        <f>BN91</f>
+        <f t="shared" si="195"/>
         <v>13294</v>
       </c>
       <c r="AQ91" s="18"/>
@@ -14145,7 +14145,7 @@
         <v>813</v>
       </c>
       <c r="AP92" s="9">
-        <f>BN92</f>
+        <f t="shared" si="195"/>
         <v>788</v>
       </c>
       <c r="AQ92" s="18"/>
@@ -14294,7 +14294,7 @@
         <v>20668</v>
       </c>
       <c r="AP93" s="9">
-        <f>BN93</f>
+        <f t="shared" si="195"/>
         <v>20654</v>
       </c>
       <c r="AQ93" s="18"/>
@@ -14443,7 +14443,7 @@
         <v>5468</v>
       </c>
       <c r="AP94" s="9">
-        <f>BN94</f>
+        <f t="shared" si="195"/>
         <v>6794</v>
       </c>
       <c r="AQ94" s="19"/>
@@ -14529,99 +14529,99 @@
         <v>40458</v>
       </c>
       <c r="U95" s="11">
-        <f t="shared" ref="U95:AR95" si="195">SUM(U89:U94)</f>
+        <f t="shared" ref="U95:AR95" si="196">SUM(U89:U94)</f>
         <v>43305</v>
       </c>
       <c r="V95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>46854</v>
       </c>
       <c r="W95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>56177</v>
       </c>
       <c r="X95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>59045</v>
       </c>
       <c r="Y95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>62339</v>
       </c>
       <c r="Z95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>67151</v>
       </c>
       <c r="AA95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>69022</v>
       </c>
       <c r="AB95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>71561</v>
       </c>
       <c r="AC95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>80338</v>
       </c>
       <c r="AD95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>83646</v>
       </c>
       <c r="AE95" s="20">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>86201</v>
       </c>
       <c r="AF95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>89912</v>
       </c>
       <c r="AG95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>94164</v>
       </c>
       <c r="AH95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>99321</v>
       </c>
       <c r="AI95" s="20">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>104953</v>
       </c>
       <c r="AJ95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>113792</v>
       </c>
       <c r="AK95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>120579</v>
       </c>
       <c r="AL95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>126178</v>
       </c>
       <c r="AM95" s="20">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>132008</v>
       </c>
       <c r="AN95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>137128</v>
       </c>
       <c r="AO95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>137896</v>
       </c>
       <c r="AP95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>144258</v>
       </c>
       <c r="AQ95" s="20">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="AR95" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="AS95" s="11"/>
@@ -14640,59 +14640,59 @@
         <v>4825</v>
       </c>
       <c r="BE95" s="11">
-        <f t="shared" ref="BE95:BR95" si="196">SUM(BE89:BE94)</f>
+        <f t="shared" ref="BE95:BR95" si="197">SUM(BE89:BE94)</f>
         <v>26514</v>
       </c>
       <c r="BF95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>27755</v>
       </c>
       <c r="BG95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>30560</v>
       </c>
       <c r="BH95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>35961</v>
       </c>
       <c r="BI95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>46854</v>
       </c>
       <c r="BJ95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>67151</v>
       </c>
       <c r="BK95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>83646</v>
       </c>
       <c r="BL95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>99321</v>
       </c>
       <c r="BM95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>126178</v>
       </c>
       <c r="BN95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>144258</v>
       </c>
       <c r="BO95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BP95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BQ95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BR95" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BS95" s="11"/>
@@ -14709,31 +14709,31 @@
         <v>83</v>
       </c>
       <c r="K96" s="29">
-        <f t="shared" ref="K96:Q96" si="197">SUM(K87:K94)</f>
+        <f t="shared" ref="K96:Q96" si="198">SUM(K87:K94)</f>
         <v>0</v>
       </c>
       <c r="L96" s="29">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="M96" s="29">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="N96" s="29">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="O96" s="30">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="P96" s="29">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="Q96" s="29">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="R96" s="29">
@@ -14749,99 +14749,99 @@
         <v>90291</v>
       </c>
       <c r="U96" s="29">
-        <f t="shared" ref="U96:AR96" si="198">U87+U95</f>
+        <f t="shared" ref="U96:AR96" si="199">U87+U95</f>
         <v>92452</v>
       </c>
       <c r="V96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>97334</v>
       </c>
       <c r="W96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>109477</v>
       </c>
       <c r="X96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>117006</v>
       </c>
       <c r="Y96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>124418</v>
       </c>
       <c r="Z96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>133376</v>
       </c>
       <c r="AA96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>138371</v>
       </c>
       <c r="AB96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>139691</v>
       </c>
       <c r="AC96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>146137</v>
       </c>
       <c r="AD96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>159316</v>
       </c>
       <c r="AE96" s="30">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>163523</v>
       </c>
       <c r="AF96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>170609</v>
       </c>
       <c r="AG96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>169585</v>
       </c>
       <c r="AH96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>165987</v>
       </c>
       <c r="AI96" s="30">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>164218</v>
       </c>
       <c r="AJ96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>169779</v>
       </c>
       <c r="AK96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>178894</v>
       </c>
       <c r="AL96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>185727</v>
       </c>
       <c r="AM96" s="30">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>184491</v>
       </c>
       <c r="AN96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>206688</v>
       </c>
       <c r="AO96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>216274</v>
       </c>
       <c r="AP96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>229623</v>
       </c>
       <c r="AQ96" s="30">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="AR96" s="29">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="AS96" s="29"/>
@@ -14860,59 +14860,59 @@
         <v>17895</v>
       </c>
       <c r="BE96" s="29">
-        <f t="shared" ref="BE96:BR96" si="199">BE95+BE87</f>
+        <f t="shared" ref="BE96:BR96" si="200">BE95+BE87</f>
         <v>40184</v>
       </c>
       <c r="BF96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>49407</v>
       </c>
       <c r="BG96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>64961</v>
       </c>
       <c r="BH96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>84524</v>
       </c>
       <c r="BI96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>97334</v>
       </c>
       <c r="BJ96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>133376</v>
       </c>
       <c r="BK96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>159316</v>
       </c>
       <c r="BL96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>165987</v>
       </c>
       <c r="BM96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>185727</v>
       </c>
       <c r="BN96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>229623</v>
       </c>
       <c r="BO96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="BP96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="BQ96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="BR96" s="29">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="BS96" s="29"/>
@@ -15748,31 +15748,31 @@
         <v>89</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" ref="K103:Q103" si="200">SUM(K98:K102)</f>
+        <f t="shared" ref="K103:Q103" si="201">SUM(K98:K102)</f>
         <v>0</v>
       </c>
       <c r="L103" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="M103" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="N103" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="O103" s="18">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="P103" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="Q103" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="R103" s="9">
@@ -15828,59 +15828,59 @@
         <v>14981</v>
       </c>
       <c r="AE103" s="18">
-        <f t="shared" ref="AE103:AN103" si="201">SUM(AE98:AE102)</f>
+        <f t="shared" ref="AE103:AN103" si="202">SUM(AE98:AE102)</f>
         <v>12717</v>
       </c>
       <c r="AF103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>14874</v>
       </c>
       <c r="AG103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>17812</v>
       </c>
       <c r="AH103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>21135</v>
       </c>
       <c r="AI103" s="18">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>21086</v>
       </c>
       <c r="AJ103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>22217</v>
       </c>
       <c r="AK103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>22687</v>
       </c>
       <c r="AL103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>27026</v>
       </c>
       <c r="AM103" s="18">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>25381</v>
       </c>
       <c r="AN103" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>29921</v>
       </c>
       <c r="AO103" s="9">
-        <f t="shared" ref="AO103" si="202">SUM(AO98:AO102)</f>
+        <f t="shared" ref="AO103" si="203">SUM(AO98:AO102)</f>
         <v>30531</v>
       </c>
       <c r="AP103" s="9">
-        <f t="shared" ref="AP103" si="203">SUM(AP98:AP102)</f>
+        <f t="shared" ref="AP103" si="204">SUM(AP98:AP102)</f>
         <v>31960</v>
       </c>
       <c r="AQ103" s="18">
-        <f t="shared" ref="AQ103" si="204">SUM(AQ98:AQ102)</f>
+        <f t="shared" ref="AQ103" si="205">SUM(AQ98:AQ102)</f>
         <v>0</v>
       </c>
       <c r="AR103" s="9">
-        <f t="shared" ref="AR103" si="205">SUM(AR98:AR102)</f>
+        <f t="shared" ref="AR103" si="206">SUM(AR98:AR102)</f>
         <v>0</v>
       </c>
       <c r="AS103" s="9"/>
@@ -15891,83 +15891,83 @@
       <c r="AX103" s="9"/>
       <c r="AY103" s="9"/>
       <c r="AZ103" s="9">
-        <f t="shared" ref="AZ103:BE103" si="206">SUM(AZ98:AZ102)</f>
+        <f t="shared" ref="AZ103:BE103" si="207">SUM(AZ98:AZ102)</f>
         <v>0</v>
       </c>
       <c r="BA103" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="BB103" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="BC103" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="BD103" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>1100</v>
       </c>
       <c r="BE103" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>1424</v>
       </c>
       <c r="BF103" s="9">
-        <f t="shared" ref="BF103:BS103" si="207">SUM(BF98:BF102)</f>
+        <f t="shared" ref="BF103:BS103" si="208">SUM(BF98:BF102)</f>
         <v>1925</v>
       </c>
       <c r="BG103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>2875</v>
       </c>
       <c r="BH103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>3760</v>
       </c>
       <c r="BI103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>7017</v>
       </c>
       <c r="BJ103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>15053</v>
       </c>
       <c r="BK103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>14981</v>
       </c>
       <c r="BL103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>21135</v>
       </c>
       <c r="BM103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>27026</v>
       </c>
       <c r="BN103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>31960</v>
       </c>
       <c r="BO103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="BP103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="BQ103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="BR103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="BS103" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="BT103" s="9"/>
@@ -16516,99 +16516,99 @@
         <v>6239</v>
       </c>
       <c r="U108" s="11">
-        <f t="shared" ref="U108:AR108" si="208">SUM(U105:U107)</f>
+        <f t="shared" ref="U108:AR108" si="209">SUM(U105:U107)</f>
         <v>6648</v>
       </c>
       <c r="V108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>6190</v>
       </c>
       <c r="W108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>13053</v>
       </c>
       <c r="X108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>15265</v>
       </c>
       <c r="Y108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17091</v>
       </c>
       <c r="Z108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17269</v>
       </c>
       <c r="AA108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17998</v>
       </c>
       <c r="AB108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17936</v>
       </c>
       <c r="AC108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>16762</v>
       </c>
       <c r="AD108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>16045</v>
       </c>
       <c r="AE108" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17149</v>
       </c>
       <c r="AF108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17508</v>
       </c>
       <c r="AG108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>18413</v>
       </c>
       <c r="AH108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>19973</v>
       </c>
       <c r="AI108" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>19904</v>
       </c>
       <c r="AJ108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>21795</v>
       </c>
       <c r="AK108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>32113</v>
       </c>
       <c r="AL108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>32988</v>
       </c>
       <c r="AM108" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>34315</v>
       </c>
       <c r="AN108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>42734</v>
       </c>
       <c r="AO108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>42870</v>
       </c>
       <c r="AP108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>44495</v>
       </c>
       <c r="AQ108" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="AR108" s="11">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="AS108" s="11"/>
@@ -16627,63 +16627,63 @@
         <v>1325</v>
       </c>
       <c r="BE108" s="11">
-        <f t="shared" ref="BE108:BS108" si="209">SUM(BE105:BE107)</f>
+        <f t="shared" ref="BE108:BS108" si="210">SUM(BE105:BE107)</f>
         <v>2664</v>
       </c>
       <c r="BF108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>3264</v>
       </c>
       <c r="BG108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>2892</v>
       </c>
       <c r="BH108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>6417</v>
       </c>
       <c r="BI108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>6190</v>
       </c>
       <c r="BJ108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>17269</v>
       </c>
       <c r="BK108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>16045</v>
       </c>
       <c r="BL108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>19973</v>
       </c>
       <c r="BM108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>32988</v>
       </c>
       <c r="BN108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>44495</v>
       </c>
       <c r="BO108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="BP108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="BQ108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="BR108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="BS108" s="11">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="BT108" s="11"/>
@@ -16699,31 +16699,31 @@
         <v>941</v>
       </c>
       <c r="K109" s="29">
-        <f t="shared" ref="K109:Q109" si="210">SUM(K103:K107)</f>
+        <f t="shared" ref="K109:Q109" si="211">SUM(K103:K107)</f>
         <v>0</v>
       </c>
       <c r="L109" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="M109" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="N109" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="O109" s="30">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="P109" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="Q109" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="R109" s="29">
@@ -16739,99 +16739,99 @@
         <v>10909</v>
       </c>
       <c r="U109" s="29">
-        <f t="shared" ref="U109:AR109" si="211">U108+U103</f>
+        <f t="shared" ref="U109:AR109" si="212">U108+U103</f>
         <v>12110</v>
       </c>
       <c r="V109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>13207</v>
       </c>
       <c r="W109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>22961</v>
       </c>
       <c r="X109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>28244</v>
       </c>
       <c r="Y109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>30419</v>
       </c>
       <c r="Z109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>32322</v>
       </c>
       <c r="AA109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>33067</v>
       </c>
       <c r="AB109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>29244</v>
       </c>
       <c r="AC109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>28706</v>
       </c>
       <c r="AD109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>31026</v>
       </c>
       <c r="AE109" s="30">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>29866</v>
       </c>
       <c r="AF109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>32382</v>
       </c>
       <c r="AG109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>36225</v>
       </c>
       <c r="AH109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>41108</v>
       </c>
       <c r="AI109" s="30">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>40990</v>
       </c>
       <c r="AJ109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>44012</v>
       </c>
       <c r="AK109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>54800</v>
       </c>
       <c r="AL109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>60014</v>
       </c>
       <c r="AM109" s="30">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>59696</v>
       </c>
       <c r="AN109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>72655</v>
       </c>
       <c r="AO109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>73401</v>
       </c>
       <c r="AP109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>76455</v>
       </c>
       <c r="AQ109" s="30">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="AR109" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="AS109" s="29"/>
@@ -16850,63 +16850,63 @@
         <v>2425</v>
       </c>
       <c r="BE109" s="29">
-        <f t="shared" ref="BE109:BS109" si="212">BE108+BE103</f>
+        <f t="shared" ref="BE109:BS109" si="213">BE108+BE103</f>
         <v>4088</v>
       </c>
       <c r="BF109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>5189</v>
       </c>
       <c r="BG109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>5767</v>
       </c>
       <c r="BH109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>10177</v>
       </c>
       <c r="BI109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>13207</v>
       </c>
       <c r="BJ109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>32322</v>
       </c>
       <c r="BK109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>31026</v>
       </c>
       <c r="BL109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>41108</v>
       </c>
       <c r="BM109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>60014</v>
       </c>
       <c r="BN109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>76455</v>
       </c>
       <c r="BO109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="BP109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="BQ109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="BR109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="BS109" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="BT109" s="29"/>
@@ -17591,31 +17591,31 @@
         <v>97</v>
       </c>
       <c r="K115" s="32">
-        <f t="shared" ref="K115:Q115" si="213">SUM(K111:K114)</f>
+        <f t="shared" ref="K115:Q115" si="214">SUM(K111:K114)</f>
         <v>0</v>
       </c>
       <c r="L115" s="32">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="M115" s="32">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="N115" s="32">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="O115" s="33">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="P115" s="32">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="Q115" s="32">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="R115" s="32">
@@ -17671,59 +17671,59 @@
         <v>128290</v>
       </c>
       <c r="AE115" s="33">
-        <f t="shared" ref="AE115:AN115" si="214">SUM(AE111:AE114)</f>
+        <f t="shared" ref="AE115:AN115" si="215">SUM(AE111:AE114)</f>
         <v>133657</v>
       </c>
       <c r="AF115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>138227</v>
       </c>
       <c r="AG115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>133360</v>
       </c>
       <c r="AH115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>124879</v>
       </c>
       <c r="AI115" s="33">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>123228</v>
       </c>
       <c r="AJ115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>125767</v>
       </c>
       <c r="AK115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>124094</v>
       </c>
       <c r="AL115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>125713</v>
       </c>
       <c r="AM115" s="33">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>124795</v>
       </c>
       <c r="AN115" s="32">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>134033</v>
       </c>
       <c r="AO115" s="32">
-        <f t="shared" ref="AO115" si="215">SUM(AO111:AO114)</f>
+        <f t="shared" ref="AO115" si="216">SUM(AO111:AO114)</f>
         <v>142873</v>
       </c>
       <c r="AP115" s="32">
-        <f t="shared" ref="AP115" si="216">SUM(AP111:AP114)</f>
+        <f t="shared" ref="AP115" si="217">SUM(AP111:AP114)</f>
         <v>153168</v>
       </c>
       <c r="AQ115" s="33">
-        <f t="shared" ref="AQ115" si="217">SUM(AQ111:AQ114)</f>
+        <f t="shared" ref="AQ115" si="218">SUM(AQ111:AQ114)</f>
         <v>0</v>
       </c>
       <c r="AR115" s="32">
-        <f t="shared" ref="AR115" si="218">SUM(AR111:AR114)</f>
+        <f t="shared" ref="AR115" si="219">SUM(AR111:AR114)</f>
         <v>0</v>
       </c>
       <c r="AS115" s="32"/>
@@ -17738,67 +17738,67 @@
       <c r="BB115" s="32"/>
       <c r="BC115" s="32"/>
       <c r="BD115" s="32">
-        <f t="shared" ref="BD115:BS115" si="219">SUM(BD111:BD114)</f>
+        <f t="shared" ref="BD115:BS115" si="220">SUM(BD111:BD114)</f>
         <v>15470</v>
       </c>
       <c r="BE115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>36096</v>
       </c>
       <c r="BF115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>44218</v>
       </c>
       <c r="BG115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>59194</v>
       </c>
       <c r="BH115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>74347</v>
       </c>
       <c r="BI115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>84127</v>
       </c>
       <c r="BJ115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>101054</v>
       </c>
       <c r="BK115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>128290</v>
       </c>
       <c r="BL115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>124879</v>
       </c>
       <c r="BM115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>125713</v>
       </c>
       <c r="BN115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>153168</v>
       </c>
       <c r="BO115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="BP115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="BQ115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="BR115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="BS115" s="32">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="BT115" s="32"/>
@@ -17814,31 +17814,31 @@
         <v>98</v>
       </c>
       <c r="K116" s="29">
-        <f t="shared" ref="K116:Q116" si="220">K115+K109</f>
+        <f t="shared" ref="K116:Q116" si="221">K115+K109</f>
         <v>0</v>
       </c>
       <c r="L116" s="29">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="M116" s="29">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="N116" s="29">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="O116" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="P116" s="29">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="Q116" s="29">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="R116" s="29">
@@ -17894,59 +17894,59 @@
         <v>159316</v>
       </c>
       <c r="AE116" s="30">
-        <f t="shared" ref="AE116:AN116" si="221">AE115+AE109</f>
+        <f t="shared" ref="AE116:AN116" si="222">AE115+AE109</f>
         <v>163523</v>
       </c>
       <c r="AF116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>170609</v>
       </c>
       <c r="AG116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>169585</v>
       </c>
       <c r="AH116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>165987</v>
       </c>
       <c r="AI116" s="30">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>164218</v>
       </c>
       <c r="AJ116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>169779</v>
       </c>
       <c r="AK116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>178894</v>
       </c>
       <c r="AL116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>185727</v>
       </c>
       <c r="AM116" s="30">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>184491</v>
       </c>
       <c r="AN116" s="29">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>206688</v>
       </c>
       <c r="AO116" s="29">
-        <f t="shared" ref="AO116" si="222">AO115+AO109</f>
+        <f t="shared" ref="AO116" si="223">AO115+AO109</f>
         <v>216274</v>
       </c>
       <c r="AP116" s="29">
-        <f t="shared" ref="AP116" si="223">AP115+AP109</f>
+        <f t="shared" ref="AP116" si="224">AP115+AP109</f>
         <v>229623</v>
       </c>
       <c r="AQ116" s="30">
-        <f t="shared" ref="AQ116" si="224">AQ115+AQ109</f>
+        <f t="shared" ref="AQ116" si="225">AQ115+AQ109</f>
         <v>0</v>
       </c>
       <c r="AR116" s="29">
-        <f t="shared" ref="AR116" si="225">AR115+AR109</f>
+        <f t="shared" ref="AR116" si="226">AR115+AR109</f>
         <v>0</v>
       </c>
       <c r="AS116" s="29"/>
@@ -17961,67 +17961,67 @@
       <c r="BB116" s="29"/>
       <c r="BC116" s="29"/>
       <c r="BD116" s="29">
-        <f t="shared" ref="BD116:BS116" si="226">BD115+BD109</f>
+        <f t="shared" ref="BD116:BS116" si="227">BD115+BD109</f>
         <v>17895</v>
       </c>
       <c r="BE116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>40184</v>
       </c>
       <c r="BF116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>49407</v>
       </c>
       <c r="BG116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>64961</v>
       </c>
       <c r="BH116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>84524</v>
       </c>
       <c r="BI116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>97334</v>
       </c>
       <c r="BJ116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>133376</v>
       </c>
       <c r="BK116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>159316</v>
       </c>
       <c r="BL116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>165987</v>
       </c>
       <c r="BM116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>185727</v>
       </c>
       <c r="BN116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>229623</v>
       </c>
       <c r="BO116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="BP116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="BQ116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="BR116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="BS116" s="29">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="BT116" s="29"/>
@@ -18448,115 +18448,115 @@
         <v>101</v>
       </c>
       <c r="K125" s="9">
-        <f t="shared" ref="K125:AL125" si="227">SUM(K123:K124)</f>
+        <f t="shared" ref="K125:AL125" si="228">SUM(K123:K124)</f>
         <v>0</v>
       </c>
       <c r="L125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="M125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="N125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="O125" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="P125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>7703</v>
       </c>
       <c r="Q125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>12075</v>
       </c>
       <c r="R125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="S125" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>5048</v>
       </c>
       <c r="T125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>7886</v>
       </c>
       <c r="U125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>12042</v>
       </c>
       <c r="V125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>15359</v>
       </c>
       <c r="W125" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>5471</v>
       </c>
       <c r="X125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>10454</v>
       </c>
       <c r="Y125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>16229</v>
       </c>
       <c r="Z125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>21212</v>
       </c>
       <c r="AA125" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>7443</v>
       </c>
       <c r="AB125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>8065</v>
       </c>
       <c r="AC125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>14205</v>
       </c>
       <c r="AD125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>23632</v>
       </c>
       <c r="AE125" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>7939</v>
       </c>
       <c r="AF125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>16545</v>
       </c>
       <c r="AG125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>26289</v>
       </c>
       <c r="AH125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>39116</v>
       </c>
       <c r="AI125" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>8635</v>
       </c>
       <c r="AJ125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>13259</v>
       </c>
       <c r="AK125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>13576</v>
       </c>
       <c r="AL125" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>19044</v>
       </c>
       <c r="AM125" s="18">
@@ -18564,23 +18564,23 @@
         <v>7156</v>
       </c>
       <c r="AN125" s="9">
-        <f t="shared" ref="AN125" si="228">SUM(AN123:AN124)</f>
+        <f t="shared" ref="AN125" si="229">SUM(AN123:AN124)</f>
         <v>18249</v>
       </c>
       <c r="AO125" s="9">
-        <f t="shared" ref="AO125" si="229">SUM(AO123:AO124)</f>
+        <f t="shared" ref="AO125" si="230">SUM(AO123:AO124)</f>
         <v>32108</v>
       </c>
       <c r="AP125" s="9">
-        <f t="shared" ref="AP125" si="230">SUM(AP123:AP124)</f>
+        <f t="shared" ref="AP125" si="231">SUM(AP123:AP124)</f>
         <v>43847</v>
       </c>
       <c r="AQ125" s="18">
-        <f t="shared" ref="AQ125" si="231">SUM(AQ123:AQ124)</f>
+        <f t="shared" ref="AQ125" si="232">SUM(AQ123:AQ124)</f>
         <v>0</v>
       </c>
       <c r="AR125" s="9">
-        <f t="shared" ref="AR125" si="232">SUM(AR123:AR124)</f>
+        <f t="shared" ref="AR125" si="233">SUM(AR123:AR124)</f>
         <v>0</v>
       </c>
       <c r="AS125" s="9"/>
@@ -18591,75 +18591,75 @@
       <c r="AX125" s="9"/>
       <c r="AY125" s="9"/>
       <c r="AZ125" s="9">
-        <f t="shared" ref="AZ125:BE125" si="233">SUM(AZ123:AZ124)</f>
+        <f t="shared" ref="AZ125:BE125" si="234">SUM(AZ123:AZ124)</f>
         <v>0</v>
       </c>
       <c r="BA125" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="BB125" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="BC125" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>377</v>
       </c>
       <c r="BD125" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>2860</v>
       </c>
       <c r="BE125" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>3626</v>
       </c>
       <c r="BF125" s="9">
-        <f t="shared" ref="BF125:BQ125" si="234">SUM(BF123:BF124)</f>
+        <f t="shared" ref="BF125:BQ125" si="235">SUM(BF123:BF124)</f>
         <v>7797</v>
       </c>
       <c r="BG125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>11617</v>
       </c>
       <c r="BH125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>17483</v>
       </c>
       <c r="BI125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>15359</v>
       </c>
       <c r="BJ125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>21212</v>
       </c>
       <c r="BK125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>23632</v>
       </c>
       <c r="BL125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>39116</v>
       </c>
       <c r="BM125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>19044</v>
       </c>
       <c r="BN125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>43847</v>
       </c>
       <c r="BO125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0</v>
       </c>
       <c r="BP125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0</v>
       </c>
       <c r="BQ125" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0</v>
       </c>
       <c r="BR125" s="9"/>
@@ -19159,7 +19159,7 @@
       <c r="AQ134" s="53"/>
     </row>
     <row r="135" spans="2:66" x14ac:dyDescent="0.35">
-      <c r="B135" s="54" t="s">
+      <c r="B135" t="s">
         <v>101</v>
       </c>
       <c r="S135" s="18">
@@ -19171,11 +19171,11 @@
         <v>2838</v>
       </c>
       <c r="U135" s="9">
-        <f t="shared" ref="U135:V135" si="235">SUM(U133:U134)</f>
+        <f t="shared" ref="U135:V135" si="236">SUM(U133:U134)</f>
         <v>4156</v>
       </c>
       <c r="V135" s="9">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>3317</v>
       </c>
       <c r="W135" s="18">
@@ -19187,11 +19187,11 @@
         <v>4983</v>
       </c>
       <c r="Y135" s="9">
-        <f t="shared" ref="Y135" si="236">SUM(Y133:Y134)</f>
+        <f t="shared" ref="Y135" si="237">SUM(Y133:Y134)</f>
         <v>5775</v>
       </c>
       <c r="Z135" s="9">
-        <f t="shared" ref="Z135" si="237">SUM(Z133:Z134)</f>
+        <f t="shared" ref="Z135" si="238">SUM(Z133:Z134)</f>
         <v>4983</v>
       </c>
       <c r="AA135" s="18">
@@ -19203,11 +19203,11 @@
         <v>622</v>
       </c>
       <c r="AC135" s="9">
-        <f t="shared" ref="AC135" si="238">SUM(AC133:AC134)</f>
+        <f t="shared" ref="AC135" si="239">SUM(AC133:AC134)</f>
         <v>6140</v>
       </c>
       <c r="AD135" s="9">
-        <f t="shared" ref="AD135" si="239">SUM(AD133:AD134)</f>
+        <f t="shared" ref="AD135" si="240">SUM(AD133:AD134)</f>
         <v>9427</v>
       </c>
       <c r="AE135" s="18">
@@ -19219,11 +19219,11 @@
         <v>8606</v>
       </c>
       <c r="AG135" s="9">
-        <f t="shared" ref="AG135" si="240">SUM(AG133:AG134)</f>
+        <f t="shared" ref="AG135" si="241">SUM(AG133:AG134)</f>
         <v>9744</v>
       </c>
       <c r="AH135" s="9">
-        <f t="shared" ref="AH135" si="241">SUM(AH133:AH134)</f>
+        <f t="shared" ref="AH135" si="242">SUM(AH133:AH134)</f>
         <v>12827</v>
       </c>
       <c r="AI135" s="18">
@@ -19235,11 +19235,11 @@
         <v>4624</v>
       </c>
       <c r="AK135" s="9">
-        <f t="shared" ref="AK135" si="242">SUM(AK133:AK134)</f>
+        <f t="shared" ref="AK135" si="243">SUM(AK133:AK134)</f>
         <v>317</v>
       </c>
       <c r="AL135" s="9">
-        <f t="shared" ref="AL135" si="243">SUM(AL133:AL134)</f>
+        <f t="shared" ref="AL135" si="244">SUM(AL133:AL134)</f>
         <v>5468</v>
       </c>
       <c r="AM135" s="18">
@@ -19251,11 +19251,11 @@
         <v>11093</v>
       </c>
       <c r="AO135" s="9">
-        <f t="shared" ref="AO135" si="244">SUM(AO133:AO134)</f>
+        <f t="shared" ref="AO135" si="245">SUM(AO133:AO134)</f>
         <v>13859</v>
       </c>
       <c r="AP135" s="9">
-        <f t="shared" ref="AP135" si="245">SUM(AP133:AP134)</f>
+        <f t="shared" ref="AP135" si="246">SUM(AP133:AP134)</f>
         <v>11739</v>
       </c>
     </row>
@@ -19676,920 +19676,949 @@
       <c r="AM142" s="16"/>
       <c r="AQ142" s="16"/>
     </row>
-    <row r="143" spans="2:66" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="67" t="s">
+    <row r="143" spans="2:66" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="59" t="s">
         <v>1284</v>
       </c>
-      <c r="W143" s="67">
+      <c r="W143" s="59">
         <f>W7*W144</f>
         <v>452904.48000000004</v>
       </c>
-      <c r="X143" s="67">
-        <f t="shared" ref="X143:AS143" si="246">X7*X144</f>
+      <c r="X143" s="59">
+        <f t="shared" ref="X143:AS143" si="247">X7*X144</f>
         <v>521637.05000000005</v>
       </c>
-      <c r="Y143" s="67">
-        <f t="shared" si="246"/>
+      <c r="Y143" s="59">
+        <f t="shared" si="247"/>
         <v>542459.78</v>
       </c>
-      <c r="Z143" s="67">
-        <f t="shared" si="246"/>
+      <c r="Z143" s="59">
+        <f t="shared" si="247"/>
         <v>552106.29999999993</v>
       </c>
-      <c r="AA143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AA143" s="59">
+        <f t="shared" si="247"/>
         <v>558596.43000000005</v>
       </c>
-      <c r="AB143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AB143" s="59">
+        <f t="shared" si="247"/>
         <v>593142</v>
       </c>
-      <c r="AC143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AC143" s="59">
+        <f t="shared" si="247"/>
         <v>733618.50000000012</v>
       </c>
-      <c r="AD143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AD143" s="59">
+        <f t="shared" si="247"/>
         <v>781031.45</v>
       </c>
-      <c r="AE143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AE143" s="59">
+        <f t="shared" si="247"/>
         <v>766754.04</v>
       </c>
-      <c r="AF143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AF143" s="59">
+        <f t="shared" si="247"/>
         <v>908013.6</v>
       </c>
-      <c r="AG143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AG143" s="59">
+        <f t="shared" si="247"/>
         <v>1012955.5800000001</v>
       </c>
-      <c r="AH143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AH143" s="59">
+        <f t="shared" si="247"/>
         <v>934889.65</v>
       </c>
-      <c r="AI143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AI143" s="59">
+        <f t="shared" si="247"/>
         <v>684792.5</v>
       </c>
-      <c r="AJ143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AJ143" s="59">
+        <f t="shared" si="247"/>
         <v>522899.51999999996</v>
       </c>
-      <c r="AK143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AK143" s="59">
+        <f t="shared" si="247"/>
         <v>434671.74</v>
       </c>
-      <c r="AL143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AL143" s="59">
+        <f t="shared" si="247"/>
         <v>316286.76999999996</v>
       </c>
-      <c r="AM143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AM143" s="59">
+        <f t="shared" si="247"/>
         <v>440566.10000000003</v>
       </c>
-      <c r="AN143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AN143" s="59">
+        <f t="shared" si="247"/>
         <v>632267.28</v>
       </c>
-      <c r="AO143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AO143" s="59">
+        <f t="shared" si="247"/>
         <v>775582.08</v>
       </c>
-      <c r="AP143" s="67">
-        <f t="shared" si="246"/>
+      <c r="AP143" s="59">
+        <f t="shared" si="247"/>
         <v>838223.1</v>
       </c>
-      <c r="AQ143" s="67">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-      <c r="AR143" s="67">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-      <c r="AS143" s="67">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:66" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="56" t="s">
+      <c r="AQ143" s="59">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="AR143" s="59">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="AS143" s="59">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:66" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
         <v>2</v>
       </c>
-      <c r="W144" s="59">
+      <c r="O144"/>
+      <c r="S144"/>
+      <c r="W144" s="9">
         <f>W75</f>
         <v>2856</v>
       </c>
-      <c r="X144" s="59">
-        <f t="shared" ref="X144:AS144" si="247">X75</f>
+      <c r="X144" s="9">
+        <f t="shared" ref="X144:AS144" si="248">X75</f>
         <v>2855</v>
       </c>
-      <c r="Y144" s="59">
-        <f t="shared" si="247"/>
+      <c r="Y144" s="9">
+        <f t="shared" si="248"/>
         <v>2854</v>
       </c>
-      <c r="Z144" s="59">
-        <f t="shared" si="247"/>
+      <c r="Z144" s="9">
+        <f t="shared" si="248"/>
         <v>2854</v>
       </c>
-      <c r="AA144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AA144" s="9">
+        <f t="shared" si="248"/>
         <v>2851</v>
       </c>
-      <c r="AB144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AB144" s="9">
+        <f t="shared" si="248"/>
         <v>2850</v>
       </c>
-      <c r="AC144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AC144" s="9">
+        <f t="shared" si="248"/>
         <v>2850</v>
       </c>
-      <c r="AD144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AD144" s="9">
+        <f t="shared" si="248"/>
         <v>2851</v>
       </c>
-      <c r="AE144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AE144" s="9">
+        <f t="shared" si="248"/>
         <v>2847</v>
       </c>
-      <c r="AF144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AF144" s="9">
+        <f t="shared" si="248"/>
         <v>2834</v>
       </c>
-      <c r="AG144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AG144" s="9">
+        <f t="shared" si="248"/>
         <v>2814</v>
       </c>
-      <c r="AH144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AH144" s="9">
+        <f t="shared" si="248"/>
         <v>2815</v>
       </c>
-      <c r="AI144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AI144" s="9">
+        <f t="shared" si="248"/>
         <v>2725</v>
       </c>
-      <c r="AJ144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AJ144" s="9">
+        <f t="shared" si="248"/>
         <v>2704</v>
       </c>
-      <c r="AK144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AK144" s="9">
+        <f t="shared" si="248"/>
         <v>2682</v>
       </c>
-      <c r="AL144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AL144" s="9">
+        <f t="shared" si="248"/>
         <v>2687</v>
       </c>
-      <c r="AM144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AM144" s="9">
+        <f t="shared" si="248"/>
         <v>2587</v>
       </c>
-      <c r="AN144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AN144" s="9">
+        <f t="shared" si="248"/>
         <v>2568</v>
       </c>
-      <c r="AO144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AO144" s="9">
+        <f t="shared" si="248"/>
         <v>2576</v>
       </c>
-      <c r="AP144" s="59">
-        <f t="shared" si="247"/>
+      <c r="AP144" s="9">
+        <f t="shared" si="248"/>
         <v>2574</v>
       </c>
-      <c r="AQ144" s="59">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-      <c r="AR144" s="59">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-      <c r="AS144" s="59">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:45" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="66" t="s">
+      <c r="AQ144" s="9">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="AR144" s="9">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="AS144" s="9">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:45" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="34" t="s">
         <v>1285</v>
       </c>
-      <c r="W145" s="66">
+      <c r="W145" s="34">
         <f>W143/SUM(T55:W55)</f>
         <v>7.6829883458582851</v>
       </c>
-      <c r="X145" s="66">
-        <f t="shared" ref="X145:AS145" si="248">X143/SUM(U55:X55)</f>
+      <c r="X145" s="34">
+        <f t="shared" ref="X145:AS145" si="249">X143/SUM(U55:X55)</f>
         <v>8.3323278065299355</v>
       </c>
-      <c r="Y145" s="66">
-        <f t="shared" si="248"/>
+      <c r="Y145" s="34">
+        <f t="shared" si="249"/>
         <v>8.1537341610425536</v>
       </c>
-      <c r="Z145" s="66">
-        <f t="shared" si="248"/>
+      <c r="Z145" s="34">
+        <f t="shared" si="249"/>
         <v>7.8094728206288799</v>
       </c>
-      <c r="AA145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AA145" s="34">
+        <f t="shared" si="249"/>
         <v>7.6147665526125667</v>
       </c>
-      <c r="AB145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AB145" s="34">
+        <f t="shared" si="249"/>
         <v>7.8919343250219534</v>
       </c>
-      <c r="AC145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AC145" s="34">
+        <f t="shared" si="249"/>
         <v>9.2891321414100503</v>
       </c>
-      <c r="AD145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AD145" s="34">
+        <f t="shared" si="249"/>
         <v>9.0854586168789613</v>
       </c>
-      <c r="AE145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AE145" s="34">
+        <f t="shared" si="249"/>
         <v>8.1224805347514284</v>
       </c>
-      <c r="AF145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AF145" s="34">
+        <f t="shared" si="249"/>
         <v>8.6651614196146536</v>
       </c>
-      <c r="AG145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AG145" s="34">
+        <f t="shared" si="249"/>
         <v>9.0177565900168268</v>
       </c>
-      <c r="AH145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AH145" s="34">
+        <f t="shared" si="249"/>
         <v>7.927563618787576</v>
       </c>
-      <c r="AI145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AI145" s="34">
+        <f t="shared" si="249"/>
         <v>5.7225318804004477</v>
       </c>
-      <c r="AJ145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AJ145" s="34">
+        <f t="shared" si="249"/>
         <v>4.3789895403271055</v>
       </c>
-      <c r="AK145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AK145" s="34">
+        <f t="shared" si="249"/>
         <v>3.6800723024171358</v>
       </c>
-      <c r="AL145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AL145" s="34">
+        <f t="shared" si="249"/>
         <v>2.7123701429563751</v>
       </c>
-      <c r="AM145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AM145" s="34">
+        <f t="shared" si="249"/>
         <v>3.7544194092683179</v>
       </c>
-      <c r="AN145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AN145" s="34">
+        <f t="shared" si="249"/>
         <v>5.2460300523551524</v>
       </c>
-      <c r="AO145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AO145" s="34">
+        <f t="shared" si="249"/>
         <v>6.1091101571422941</v>
       </c>
-      <c r="AP145" s="66">
-        <f t="shared" si="248"/>
+      <c r="AP145" s="34">
+        <f t="shared" si="249"/>
         <v>6.2135705919852926</v>
       </c>
-      <c r="AQ145" s="66">
-        <f t="shared" si="248"/>
-        <v>0</v>
-      </c>
-      <c r="AR145" s="66">
-        <f t="shared" si="248"/>
-        <v>0</v>
-      </c>
-      <c r="AS145" s="66">
-        <f t="shared" si="248"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:45" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="66" t="s">
+      <c r="AQ145" s="34">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+      <c r="AR145" s="34">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+      <c r="AS145" s="34">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:45" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="34" t="s">
         <v>1286</v>
       </c>
-      <c r="W146" s="66">
+      <c r="W146" s="34">
         <f>W143/SUM(T70:W70)</f>
         <v>23.16291515368486</v>
       </c>
-      <c r="X146" s="66">
-        <f t="shared" ref="X146:AS146" si="249">X143/SUM(U70:X70)</f>
+      <c r="X146" s="34">
+        <f t="shared" ref="X146:AS146" si="250">X143/SUM(U70:X70)</f>
         <v>30.571238938053099</v>
       </c>
-      <c r="Y146" s="66">
-        <f t="shared" si="249"/>
+      <c r="Y146" s="34">
+        <f t="shared" si="250"/>
         <v>30.108218904368098</v>
       </c>
-      <c r="Z146" s="66">
-        <f t="shared" si="249"/>
+      <c r="Z146" s="34">
+        <f t="shared" si="250"/>
         <v>29.867800919664589</v>
       </c>
-      <c r="AA146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AA146" s="34">
+        <f t="shared" si="250"/>
         <v>26.653136272545094</v>
       </c>
-      <c r="AB146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AB146" s="34">
+        <f t="shared" si="250"/>
         <v>25.218622448979591</v>
       </c>
-      <c r="AC146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AC146" s="34">
+        <f t="shared" si="250"/>
         <v>29.025459940652823</v>
       </c>
-      <c r="AD146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AD146" s="34">
+        <f t="shared" si="250"/>
         <v>26.797208879434571</v>
       </c>
-      <c r="AE146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AE146" s="34">
+        <f t="shared" si="250"/>
         <v>22.724698141726684</v>
       </c>
-      <c r="AF146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AF146" s="34">
+        <f t="shared" si="250"/>
         <v>23.308098672895756</v>
       </c>
-      <c r="AG146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AG146" s="34">
+        <f t="shared" si="250"/>
         <v>25.132256047636773</v>
       </c>
-      <c r="AH146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AH146" s="34">
+        <f t="shared" si="250"/>
         <v>23.746244602489206</v>
       </c>
-      <c r="AI146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AI146" s="34">
+        <f t="shared" si="250"/>
         <v>18.340363704536934</v>
       </c>
-      <c r="AJ146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AJ146" s="34">
+        <f t="shared" si="250"/>
         <v>15.548140703517587</v>
       </c>
-      <c r="AK146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AK146" s="34">
+        <f t="shared" si="250"/>
         <v>15.076017619311875</v>
       </c>
-      <c r="AL146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AL146" s="34">
+        <f t="shared" si="250"/>
         <v>13.633050431034482</v>
       </c>
-      <c r="AM146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AM146" s="34">
+        <f t="shared" si="250"/>
         <v>20.544958962880063</v>
       </c>
-      <c r="AN146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AN146" s="34">
+        <f t="shared" si="250"/>
         <v>28.044678642714572</v>
       </c>
-      <c r="AO146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AO146" s="34">
+        <f t="shared" si="250"/>
         <v>26.08489153465846</v>
       </c>
-      <c r="AP146" s="66">
-        <f t="shared" si="249"/>
+      <c r="AP146" s="34">
+        <f t="shared" si="250"/>
         <v>21.439027571742798</v>
       </c>
-      <c r="AQ146" s="66">
-        <f t="shared" si="249"/>
-        <v>0</v>
-      </c>
-      <c r="AR146" s="66">
-        <f t="shared" si="249"/>
-        <v>0</v>
-      </c>
-      <c r="AS146" s="66">
-        <f t="shared" si="249"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:45" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="66" t="s">
+      <c r="AQ146" s="34">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="AR146" s="34">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="AS146" s="34">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:45" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="34" t="s">
         <v>1287</v>
       </c>
-      <c r="W147" s="66">
+      <c r="W147" s="34">
         <f>W143/W115</f>
         <v>5.2349216329927417</v>
       </c>
-      <c r="X147" s="66">
-        <f t="shared" ref="X147:AS147" si="250">X143/X115</f>
+      <c r="X147" s="34">
+        <f t="shared" ref="X147:AS147" si="251">X143/X115</f>
         <v>5.8768059529979046</v>
       </c>
-      <c r="Y147" s="66">
-        <f t="shared" si="250"/>
+      <c r="Y147" s="34">
+        <f t="shared" si="251"/>
         <v>5.7709101160650649</v>
       </c>
-      <c r="Z147" s="66">
-        <f t="shared" si="250"/>
+      <c r="Z147" s="34">
+        <f t="shared" si="251"/>
         <v>5.463477942486195</v>
       </c>
-      <c r="AA147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AA147" s="34">
+        <f t="shared" si="251"/>
         <v>5.3046078971359121</v>
       </c>
-      <c r="AB147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AB147" s="34">
+        <f t="shared" si="251"/>
         <v>5.3703767417856527</v>
       </c>
-      <c r="AC147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AC147" s="34">
+        <f t="shared" si="251"/>
         <v>6.2313112094520573</v>
       </c>
-      <c r="AD147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AD147" s="34">
+        <f t="shared" si="251"/>
         <v>6.0880150440408443</v>
       </c>
-      <c r="AE147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AE147" s="34">
+        <f t="shared" si="251"/>
         <v>5.7367293894072144</v>
       </c>
-      <c r="AF147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AF147" s="34">
+        <f t="shared" si="251"/>
         <v>6.5690031614662834</v>
       </c>
-      <c r="AG147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AG147" s="34">
+        <f t="shared" si="251"/>
         <v>7.5956477204559096</v>
       </c>
-      <c r="AH147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AH147" s="34">
+        <f t="shared" si="251"/>
         <v>7.4863640003523413</v>
       </c>
-      <c r="AI147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AI147" s="34">
+        <f t="shared" si="251"/>
         <v>5.5571177005226087</v>
       </c>
-      <c r="AJ147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AJ147" s="34">
+        <f t="shared" si="251"/>
         <v>4.1576846072499141</v>
       </c>
-      <c r="AK147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AK147" s="34">
+        <f t="shared" si="251"/>
         <v>3.5027619385304689</v>
       </c>
-      <c r="AL147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AL147" s="34">
+        <f t="shared" si="251"/>
         <v>2.5159432198738392</v>
       </c>
-      <c r="AM147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AM147" s="34">
+        <f t="shared" si="251"/>
         <v>3.5303185223766982</v>
       </c>
-      <c r="AN147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AN147" s="34">
+        <f t="shared" si="251"/>
         <v>4.7172508262890487</v>
       </c>
-      <c r="AO147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AO147" s="34">
+        <f t="shared" si="251"/>
         <v>5.4284719996080435</v>
       </c>
-      <c r="AP147" s="66">
-        <f t="shared" si="250"/>
+      <c r="AP147" s="34">
+        <f t="shared" si="251"/>
         <v>5.4725732528987781</v>
       </c>
-      <c r="AQ147" s="66" t="e">
-        <f t="shared" si="250"/>
+      <c r="AQ147" s="34" t="e">
+        <f t="shared" si="251"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR147" s="66" t="e">
-        <f t="shared" si="250"/>
+      <c r="AR147" s="34" t="e">
+        <f t="shared" si="251"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS147" s="66" t="e">
-        <f t="shared" si="250"/>
+      <c r="AS147" s="34" t="e">
+        <f t="shared" si="251"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="2:45" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="66" t="s">
+    <row r="148" spans="2:45" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="34" t="s">
         <v>1288</v>
       </c>
-      <c r="W148" s="66">
+      <c r="W148" s="34">
         <f>W143/SUM(T135:W135)</f>
         <v>28.697533899379042</v>
       </c>
-      <c r="X148" s="66">
-        <f t="shared" ref="X148:AS148" si="251">X143/SUM(U135:X135)</f>
+      <c r="X148" s="34">
+        <f t="shared" ref="X148:AS148" si="252">X143/SUM(U135:X135)</f>
         <v>29.097844034138454</v>
       </c>
-      <c r="Y148" s="66">
-        <f t="shared" si="251"/>
+      <c r="Y148" s="34">
+        <f t="shared" si="252"/>
         <v>27.752981684232068</v>
       </c>
-      <c r="Z148" s="66">
-        <f t="shared" si="251"/>
+      <c r="Z148" s="34">
+        <f t="shared" si="252"/>
         <v>26.028017160098056</v>
       </c>
-      <c r="AA148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AA148" s="34">
+        <f t="shared" si="252"/>
         <v>24.09404891304348</v>
       </c>
-      <c r="AB148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AB148" s="34">
+        <f t="shared" si="252"/>
         <v>31.511555012484727</v>
       </c>
-      <c r="AC148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AC148" s="34">
+        <f t="shared" si="252"/>
         <v>38.233192620387747</v>
       </c>
-      <c r="AD148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AD148" s="34">
+        <f t="shared" si="252"/>
         <v>33.049739759647935</v>
       </c>
-      <c r="AE148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AE148" s="34">
+        <f t="shared" si="252"/>
         <v>31.778599137931035</v>
       </c>
-      <c r="AF148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AF148" s="34">
+        <f t="shared" si="252"/>
         <v>28.276457399103137</v>
       </c>
-      <c r="AG148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AG148" s="34">
+        <f t="shared" si="252"/>
         <v>28.361394893045137</v>
       </c>
-      <c r="AH148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AH148" s="34">
+        <f t="shared" si="252"/>
         <v>23.900440996011863</v>
       </c>
-      <c r="AI148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AI148" s="34">
+        <f t="shared" si="252"/>
         <v>17.200655581231789</v>
       </c>
-      <c r="AJ148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AJ148" s="34">
+        <f t="shared" si="252"/>
         <v>14.593902316494557</v>
       </c>
-      <c r="AK148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AK148" s="34">
+        <f t="shared" si="252"/>
         <v>16.462967844563117</v>
       </c>
-      <c r="AL148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AL148" s="34">
+        <f t="shared" si="252"/>
         <v>16.608210985087165</v>
       </c>
-      <c r="AM148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AM148" s="34">
+        <f t="shared" si="252"/>
         <v>25.082043837176204</v>
       </c>
-      <c r="AN148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AN148" s="34">
+        <f t="shared" si="252"/>
         <v>26.307201464591831</v>
       </c>
-      <c r="AO148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AO148" s="34">
+        <f t="shared" si="252"/>
         <v>20.640357675111773</v>
       </c>
-      <c r="AP148" s="66">
-        <f t="shared" si="251"/>
+      <c r="AP148" s="34">
+        <f t="shared" si="252"/>
         <v>19.117000022806575</v>
       </c>
-      <c r="AQ148" s="66">
-        <f t="shared" si="251"/>
-        <v>0</v>
-      </c>
-      <c r="AR148" s="66">
-        <f t="shared" si="251"/>
-        <v>0</v>
-      </c>
-      <c r="AS148" s="66">
-        <f t="shared" si="251"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:45" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="2:45" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="68" t="s">
+      <c r="AQ148" s="34">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+      <c r="AR148" s="34">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+      <c r="AS148" s="34">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="O149"/>
+      <c r="S149"/>
+      <c r="W149"/>
+      <c r="AA149"/>
+      <c r="AE149"/>
+      <c r="AI149"/>
+      <c r="AM149"/>
+      <c r="AQ149"/>
+    </row>
+    <row r="150" spans="2:45" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="23" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="151" spans="2:45" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="57" t="s">
+    <row r="151" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA151" s="58">
+      <c r="AA151" s="3">
         <f>(AA55-W55)/ABS(W55)</f>
         <v>0.1764276712873914</v>
       </c>
-      <c r="AB151" s="58">
-        <f t="shared" ref="AB151:AS151" si="252">(AB55-X55)/ABS(X55)</f>
+      <c r="AB151" s="3">
+        <f t="shared" ref="AB151:AS151" si="253">(AB55-X55)/ABS(X55)</f>
         <v>0.10665640175293142</v>
       </c>
-      <c r="AC151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AC151" s="3">
+        <f t="shared" si="253"/>
         <v>0.21629277135735328</v>
       </c>
-      <c r="AD151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AD151" s="3">
+        <f t="shared" si="253"/>
         <v>0.33151503652404896</v>
       </c>
-      <c r="AE151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AE151" s="3">
+        <f t="shared" si="253"/>
         <v>0.47550318543158371</v>
       </c>
-      <c r="AF151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AF151" s="3">
+        <f t="shared" si="253"/>
         <v>0.55600149836784929</v>
       </c>
-      <c r="AG151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AG151" s="3">
+        <f t="shared" si="253"/>
         <v>0.35118770377270608</v>
       </c>
-      <c r="AH151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AH151" s="3">
+        <f t="shared" si="253"/>
         <v>0.19949413985964162</v>
       </c>
-      <c r="AI151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AI151" s="3">
+        <f t="shared" si="253"/>
         <v>6.6371174200450883E-2</v>
       </c>
-      <c r="AJ151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AJ151" s="3">
+        <f t="shared" si="253"/>
         <v>-8.7698180692643672E-3</v>
       </c>
-      <c r="AK151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AK151" s="3">
+        <f t="shared" si="253"/>
         <v>-4.4674250258531542E-2</v>
       </c>
-      <c r="AL151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AL151" s="3">
+        <f t="shared" si="253"/>
         <v>-4.4726916337501116E-2</v>
       </c>
-      <c r="AM151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AM151" s="3">
+        <f t="shared" si="253"/>
         <v>2.6408198366059912E-2</v>
       </c>
-      <c r="AN151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AN151" s="3">
+        <f t="shared" si="253"/>
         <v>0.11022829782804802</v>
       </c>
-      <c r="AO151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AO151" s="3">
+        <f t="shared" si="253"/>
         <v>0.23208486685429747</v>
       </c>
-      <c r="AP151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AP151" s="3">
+        <f t="shared" si="253"/>
         <v>0.24706979636250584</v>
       </c>
-      <c r="AQ151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AQ151" s="3">
+        <f t="shared" si="253"/>
         <v>-1</v>
       </c>
-      <c r="AR151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AR151" s="3">
+        <f t="shared" si="253"/>
         <v>-1</v>
       </c>
-      <c r="AS151" s="58">
-        <f t="shared" si="252"/>
+      <c r="AS151" s="3">
+        <f t="shared" si="253"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="2:45" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="57" t="s">
+    <row r="152" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="AA152" s="58">
+      <c r="AA152" s="3">
         <f>(AA70-W70)/ABS(W70)</f>
         <v>1.0181144503911075</v>
       </c>
-      <c r="AB152" s="58">
-        <f t="shared" ref="AB152:AS152" si="253">(AB70-X70)/ABS(X70)</f>
+      <c r="AB152" s="3">
+        <f t="shared" ref="AB152:AS152" si="254">(AB70-X70)/ABS(X70)</f>
         <v>0.97935779816513757</v>
       </c>
-      <c r="AC152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AC152" s="3">
+        <f t="shared" si="254"/>
         <v>0.28813002791003117</v>
       </c>
-      <c r="AD152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AD152" s="3">
+        <f t="shared" si="254"/>
         <v>0.52673833174581575</v>
       </c>
-      <c r="AE152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AE152" s="3">
+        <f t="shared" si="254"/>
         <v>0.93737250101999181</v>
       </c>
-      <c r="AF152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AF152" s="3">
+        <f t="shared" si="254"/>
         <v>1.0073387408265739</v>
       </c>
-      <c r="AG152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AG152" s="3">
+        <f t="shared" si="254"/>
         <v>0.17180729033902625</v>
       </c>
-      <c r="AH152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AH152" s="3">
+        <f t="shared" si="254"/>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="AI152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AI152" s="3">
+        <f t="shared" si="254"/>
         <v>-0.21396230388543749</v>
       </c>
-      <c r="AJ152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AJ152" s="3">
+        <f t="shared" si="254"/>
         <v>-0.35664806619203387</v>
       </c>
-      <c r="AK152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AK152" s="3">
+        <f t="shared" si="254"/>
         <v>-0.5219708505547096</v>
       </c>
-      <c r="AL152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AL152" s="3">
+        <f t="shared" si="254"/>
         <v>-0.54759358288770055</v>
       </c>
-      <c r="AM152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AM152" s="3">
+        <f t="shared" si="254"/>
         <v>-0.23523107836570664</v>
       </c>
-      <c r="AN152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AN152" s="3">
+        <f t="shared" si="254"/>
         <v>0.16464782413638404</v>
       </c>
-      <c r="AO152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AO152" s="3">
+        <f t="shared" si="254"/>
         <v>1.6354948805460752</v>
       </c>
-      <c r="AP152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AP152" s="3">
+        <f t="shared" si="254"/>
         <v>2.0126799914033957</v>
       </c>
-      <c r="AQ152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AQ152" s="3">
+        <f t="shared" si="254"/>
         <v>-1</v>
       </c>
-      <c r="AR152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AR152" s="3">
+        <f t="shared" si="254"/>
         <v>-1</v>
       </c>
-      <c r="AS152" s="58">
-        <f t="shared" si="253"/>
+      <c r="AS152" s="3">
+        <f t="shared" si="254"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="2:45" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="57" t="s">
+    <row r="153" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AA153" s="58">
+      <c r="AA153" s="3">
         <f>(AA135-W135)/ABS(W135)</f>
         <v>0.36044598793639188</v>
       </c>
-      <c r="AB153" s="58">
-        <f t="shared" ref="AB153:AS153" si="254">(AB135-X135)/ABS(X135)</f>
+      <c r="AB153" s="3">
+        <f t="shared" ref="AB153:AS153" si="255">(AB135-X135)/ABS(X135)</f>
         <v>-0.87517559702990166</v>
       </c>
-      <c r="AC153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AC153" s="3">
+        <f t="shared" si="255"/>
         <v>6.3203463203463206E-2</v>
       </c>
-      <c r="AD153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AD153" s="3">
+        <f t="shared" si="255"/>
         <v>0.89183222958057395</v>
       </c>
-      <c r="AE153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AE153" s="3">
+        <f t="shared" si="255"/>
         <v>6.6639795781270994E-2</v>
       </c>
-      <c r="AF153" s="58">
+      <c r="AF153" s="3">
         <f>(AF135-AB135)/ABS(AB135)</f>
         <v>12.836012861736334</v>
       </c>
-      <c r="AG153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AG153" s="3">
+        <f t="shared" si="255"/>
         <v>0.58697068403908792</v>
       </c>
-      <c r="AH153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AH153" s="3">
+        <f t="shared" si="255"/>
         <v>0.36066617163466641</v>
       </c>
-      <c r="AI153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AI153" s="3">
+        <f t="shared" si="255"/>
         <v>8.7668472099760669E-2</v>
       </c>
-      <c r="AJ153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AJ153" s="3">
+        <f t="shared" si="255"/>
         <v>-0.46270044155240531</v>
       </c>
-      <c r="AK153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AK153" s="3">
+        <f t="shared" si="255"/>
         <v>-0.96746715927750415</v>
       </c>
-      <c r="AL153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AL153" s="3">
+        <f t="shared" si="255"/>
         <v>-0.57371170187884934</v>
       </c>
-      <c r="AM153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AM153" s="3">
+        <f t="shared" si="255"/>
         <v>-0.17127967573827446</v>
       </c>
-      <c r="AN153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AN153" s="3">
+        <f t="shared" si="255"/>
         <v>1.3990051903114187</v>
       </c>
-      <c r="AO153" s="58">
+      <c r="AO153" s="3">
         <f>(AO135-AK135)/ABS(AK135)</f>
         <v>42.719242902208201</v>
       </c>
-      <c r="AP153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AP153" s="3">
+        <f t="shared" si="255"/>
         <v>1.1468544257498172</v>
       </c>
-      <c r="AQ153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AQ153" s="3">
+        <f t="shared" si="255"/>
         <v>-1</v>
       </c>
-      <c r="AR153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AR153" s="3">
+        <f t="shared" si="255"/>
         <v>-1</v>
       </c>
-      <c r="AS153" s="58">
-        <f t="shared" si="254"/>
+      <c r="AS153" s="3">
+        <f t="shared" si="255"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="2:45" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="57" t="s">
+    <row r="154" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA154" s="58">
+      <c r="AA154" s="3">
         <f>(AA83-W83)/ABS(W83)</f>
         <v>1.132358252076562</v>
       </c>
-      <c r="AB154" s="58">
-        <f t="shared" ref="AB154:AS154" si="255">(AB83-X83)/ABS(X83)</f>
+      <c r="AB154" s="3">
+        <f t="shared" ref="AB154:AS154" si="256">(AB83-X83)/ABS(X83)</f>
         <v>0.51653815666210279</v>
       </c>
-      <c r="AC154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AC154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.27298329056887166</v>
       </c>
-      <c r="AD154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AD154" s="3">
+        <f t="shared" si="256"/>
         <v>-7.877771371665182E-2</v>
       </c>
-      <c r="AE154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AE154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.17380811245660091</v>
       </c>
-      <c r="AF154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AF154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.23088619624613924</v>
       </c>
-      <c r="AG154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AG154" s="3">
+        <f t="shared" si="256"/>
         <v>0.24782646122062493</v>
       </c>
-      <c r="AH154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AH154" s="3">
+        <f t="shared" si="256"/>
         <v>-5.5473372781065088E-2</v>
       </c>
-      <c r="AI154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AI154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.23712396863629376</v>
       </c>
-      <c r="AJ154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AJ154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.21654516248609909</v>
       </c>
-      <c r="AK154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AK154" s="3">
+        <f t="shared" si="256"/>
         <v>-1.2969094922737307E-2</v>
       </c>
-      <c r="AL154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AL154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.11565568339256671</v>
       </c>
-      <c r="AM154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AM154" s="3">
+        <f t="shared" si="256"/>
         <v>-0.2240360069864302</v>
       </c>
-      <c r="AN154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AN154" s="3">
+        <f t="shared" si="256"/>
         <v>1.2699313934232317</v>
       </c>
-      <c r="AO154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AO154" s="3">
+        <f t="shared" si="256"/>
         <v>1.5782778864970646</v>
       </c>
-      <c r="AP154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AP154" s="3">
+        <f t="shared" si="256"/>
         <v>1.8514406375587493</v>
       </c>
-      <c r="AQ154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AQ154" s="3">
+        <f t="shared" si="256"/>
         <v>-1</v>
       </c>
-      <c r="AR154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AR154" s="3">
+        <f t="shared" si="256"/>
         <v>-1</v>
       </c>
-      <c r="AS154" s="58">
-        <f t="shared" si="255"/>
+      <c r="AS154" s="3">
+        <f t="shared" si="256"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="2:45" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" spans="2:45" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="O155"/>
+      <c r="S155"/>
+      <c r="W155"/>
+      <c r="AA155"/>
+      <c r="AE155"/>
+      <c r="AI155"/>
+      <c r="AM155"/>
+      <c r="AQ155"/>
+    </row>
+    <row r="156" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="O156"/>
+      <c r="S156"/>
+      <c r="W156"/>
+      <c r="AA156"/>
+      <c r="AE156"/>
+      <c r="AI156"/>
+      <c r="AM156"/>
+      <c r="AQ156"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/META/META.xlsx
+++ b/META/META.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/META/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1665" documentId="11_57854DD52154BDAB58DFF53FDE1A27A706F33C75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4648F3E3-DDCF-4C95-803E-13E7E22969F2}"/>
+  <xr:revisionPtr revIDLastSave="2299" documentId="11_57854DD52154BDAB58DFF53FDE1A27A706F33C75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6A371A-0CC6-407F-853E-914721FBF90A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
-    <sheet name="Balance Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Cash Flow" sheetId="7" r:id="rId7"/>
+    <sheet name="New Model" sheetId="8" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Income Statement" sheetId="5" r:id="rId6"/>
+    <sheet name="Balance Sheet" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,8 +73,45 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1317">
   <si>
     <t>Ticker</t>
   </si>
@@ -3946,17 +3984,98 @@
   </si>
   <si>
     <t>Earnings</t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>Family Of Apps</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>M&amp;S</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Interest income and other income (expense)</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>DAU</t>
+  </si>
+  <si>
+    <t>Rest of the World</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
+  </si>
+  <si>
+    <t>Revenue by Geography</t>
+  </si>
+  <si>
+    <t>Revenue/DAU</t>
+  </si>
+  <si>
+    <t>MAU</t>
+  </si>
+  <si>
+    <t>DAU/MAU</t>
+  </si>
+  <si>
+    <t>Less: Net income attributable to participating securities</t>
+  </si>
+  <si>
+    <t>Margins</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue </t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4016,6 +4135,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4140,7 +4268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4205,6 +4333,14 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4220,6 +4356,480 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>734786</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E6F2CF-70CE-5411-C137-75CBAC0A601A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13035643" y="9071"/>
+          <a:ext cx="9071" cy="14251215"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1slm7&amp;q=XNAS%3aMETA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1slm7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>Meta Platforms, Inc. (XNAS:META)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>542.80999999999995</v>
+    <v>274.38</v>
+    <v>1.2183999999999999</v>
+    <v>12.29</v>
+    <v>2.7105999999999998E-2</v>
+    <v>USD</v>
+    <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
+    <v>69329</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
+    <v>469.77</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45499.999932267972</v>
+    <v>0</v>
+    <v>459.42</v>
+    <v>1181264000000</v>
+    <v>Meta Platforms, Inc.</v>
+    <v>Meta Platforms, Inc.</v>
+    <v>464.19499999999999</v>
+    <v>26.799099999999999</v>
+    <v>453.41</v>
+    <v>465.7</v>
+    <v>2536534000</v>
+    <v>META</v>
+    <v>Meta Platforms, Inc. (XNAS:META)</v>
+    <v>14982</v>
+    <v>14328345</v>
+    <v>2004</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4646,7 +5256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:BZ156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="BB17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -20630,6 +21240,4167 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309ADFFD-ED72-4C80-AE1C-21F2C77125D0}">
+  <dimension ref="B1:BU90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="Z85" sqref="Z85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J1">
+        <v>2012</v>
+      </c>
+      <c r="K1">
+        <f>J1+1</f>
+        <v>2013</v>
+      </c>
+      <c r="L1">
+        <f t="shared" ref="L1:BO1" si="0">K1+1</f>
+        <v>2014</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" si="0"/>
+        <v>2067</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" si="0"/>
+        <v>2068</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" si="0"/>
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7">
+        <v>41306</v>
+      </c>
+      <c r="K2" s="7">
+        <v>41670</v>
+      </c>
+      <c r="L2" s="7">
+        <v>42033</v>
+      </c>
+      <c r="M2" s="7">
+        <v>42397</v>
+      </c>
+      <c r="N2" s="7">
+        <v>42769</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43132</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43496</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43860</v>
+      </c>
+      <c r="R2" s="7">
+        <v>44224</v>
+      </c>
+      <c r="S2" s="7">
+        <v>44595</v>
+      </c>
+      <c r="T2" s="7">
+        <v>44959</v>
+      </c>
+      <c r="U2" s="7">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="3" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J3" s="7">
+        <f>DATE(YEAR(K3)-1, MONTH(K3), DAY(K3))</f>
+        <v>41274</v>
+      </c>
+      <c r="K3" s="7">
+        <f>DATE(YEAR(L3)-1, MONTH(L3), DAY(L3))</f>
+        <v>41639</v>
+      </c>
+      <c r="L3" s="7">
+        <f>DATE(YEAR(M3)-1, MONTH(M3), DAY(M3))</f>
+        <v>42004</v>
+      </c>
+      <c r="M3" s="7">
+        <f>DATE(YEAR(N3)-1, MONTH(N3), DAY(N3))</f>
+        <v>42369</v>
+      </c>
+      <c r="N3" s="7">
+        <f>DATE(YEAR(O3)-1, MONTH(O3), DAY(O3))</f>
+        <v>42735</v>
+      </c>
+      <c r="O3" s="7">
+        <f>DATE(YEAR(P3)-1, MONTH(P3), DAY(P3))</f>
+        <v>43100</v>
+      </c>
+      <c r="P3" s="7">
+        <f>DATE(YEAR(Q3)-1, MONTH(Q3), DAY(Q3))</f>
+        <v>43465</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>DATE(YEAR(R3)-1, MONTH(R3), DAY(R3))</f>
+        <v>43830</v>
+      </c>
+      <c r="R3" s="7">
+        <f>DATE(YEAR(S3)-1, MONTH(S3), DAY(S3))</f>
+        <v>44196</v>
+      </c>
+      <c r="S3" s="7">
+        <f>DATE(YEAR(T3)-1, MONTH(T3), DAY(T3))</f>
+        <v>44561</v>
+      </c>
+      <c r="T3" s="7">
+        <f>DATE(YEAR(U3)-1, MONTH(U3), DAY(U3))</f>
+        <v>44926</v>
+      </c>
+      <c r="U3" s="7">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="9">
+        <v>55838</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>70697</v>
+      </c>
+      <c r="R9" s="9">
+        <v>84826</v>
+      </c>
+      <c r="S9" s="9">
+        <v>115655</v>
+      </c>
+      <c r="T9" s="9">
+        <v>114450</v>
+      </c>
+      <c r="U9" s="9">
+        <v>133006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="R10" s="10">
+        <v>45532</v>
+      </c>
+      <c r="S10" s="10">
+        <v>58709</v>
+      </c>
+      <c r="T10" s="10">
+        <v>71789</v>
+      </c>
+      <c r="U10" s="10">
+        <v>70135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="9">
+        <f>H9-H10</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f>I9-I10</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <f>J9-J10</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" ref="K11:T11" si="1">K9-K10</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>55838</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>70697</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="1"/>
+        <v>39294</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="1"/>
+        <v>56946</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="1"/>
+        <v>42661</v>
+      </c>
+      <c r="U11" s="9">
+        <f>U9-U10</f>
+        <v>62871</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H12" s="3" t="e">
+        <f>H11/H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="3" t="e">
+        <f>I11/I9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="3" t="e">
+        <f>J11/J9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="3" t="e">
+        <f t="shared" ref="K12:T12" si="2">K11/K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.46323061325536979</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.49237819376594183</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37274792485801661</v>
+      </c>
+      <c r="U12" s="3">
+        <f>U11/U9</f>
+        <v>0.47269296121979459</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1139</v>
+      </c>
+      <c r="S14" s="9">
+        <v>2274</v>
+      </c>
+      <c r="T14" s="9">
+        <v>2159</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="R15" s="10">
+        <v>7762</v>
+      </c>
+      <c r="S15" s="10">
+        <v>12467</v>
+      </c>
+      <c r="T15" s="10">
+        <v>15876</v>
+      </c>
+      <c r="U15" s="10">
+        <v>18016</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="9">
+        <f>H14-H15</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <f>I14-I15</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <f>J14-J15</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" ref="K16:T16" si="3">K14-K15</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="3"/>
+        <v>-6623</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="3"/>
+        <v>-10193</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="3"/>
+        <v>-13717</v>
+      </c>
+      <c r="U16" s="9">
+        <f>U14-U15</f>
+        <v>-16120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H17" s="3" t="e">
+        <f>H16/H14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="3" t="e">
+        <f>I16/I14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="3" t="e">
+        <f>J16/J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="3" t="e">
+        <f t="shared" ref="K17:T17" si="4">K16/K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>-5.814749780509219</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="4"/>
+        <v>-4.4824098504837293</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="4"/>
+        <v>-6.3534043538675311</v>
+      </c>
+      <c r="U17" s="3">
+        <f>U16/U14</f>
+        <v>-8.5021097046413505</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2578</v>
+      </c>
+      <c r="K20" s="9">
+        <v>3613</v>
+      </c>
+      <c r="L20" s="9">
+        <v>5649</v>
+      </c>
+      <c r="M20" s="9">
+        <v>8513</v>
+      </c>
+      <c r="N20" s="9">
+        <v>12579</v>
+      </c>
+      <c r="O20" s="9">
+        <v>17734</v>
+      </c>
+      <c r="P20" s="9">
+        <v>25727</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>32206</v>
+      </c>
+      <c r="R20" s="9">
+        <v>38433</v>
+      </c>
+      <c r="S20" s="9">
+        <v>51541</v>
+      </c>
+      <c r="T20" s="9">
+        <v>50150</v>
+      </c>
+      <c r="U20" s="9">
+        <v>52888</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>13631</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>16826</v>
+      </c>
+      <c r="R21" s="9">
+        <v>20349</v>
+      </c>
+      <c r="S21" s="9">
+        <v>29057</v>
+      </c>
+      <c r="T21" s="9">
+        <v>26681</v>
+      </c>
+      <c r="U21" s="9">
+        <v>31210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>11733</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>15406</v>
+      </c>
+      <c r="R22" s="9">
+        <v>19848</v>
+      </c>
+      <c r="S22" s="9">
+        <v>26739</v>
+      </c>
+      <c r="T22" s="9">
+        <v>27760</v>
+      </c>
+      <c r="U22" s="9">
+        <v>36154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2511</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4259</v>
+      </c>
+      <c r="L23" s="10">
+        <v>6817</v>
+      </c>
+      <c r="M23" s="10">
+        <v>9415</v>
+      </c>
+      <c r="N23" s="10">
+        <v>15059</v>
+      </c>
+      <c r="O23" s="10">
+        <v>22919</v>
+      </c>
+      <c r="P23" s="10">
+        <v>4747</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>6259</v>
+      </c>
+      <c r="R23" s="10">
+        <v>7335</v>
+      </c>
+      <c r="S23" s="10">
+        <v>10592</v>
+      </c>
+      <c r="T23" s="10">
+        <v>12018</v>
+      </c>
+      <c r="U23" s="10">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="29">
+        <f>SUM(H20:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" ref="I24:T24" si="5">SUM(I20:I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="29">
+        <f t="shared" si="5"/>
+        <v>5089</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="5"/>
+        <v>7872</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="5"/>
+        <v>12466</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" si="5"/>
+        <v>17928</v>
+      </c>
+      <c r="N24" s="29">
+        <f t="shared" si="5"/>
+        <v>27638</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" si="5"/>
+        <v>40653</v>
+      </c>
+      <c r="P24" s="29">
+        <f t="shared" si="5"/>
+        <v>55838</v>
+      </c>
+      <c r="Q24" s="29">
+        <f t="shared" si="5"/>
+        <v>70697</v>
+      </c>
+      <c r="R24" s="29">
+        <f t="shared" si="5"/>
+        <v>85965</v>
+      </c>
+      <c r="S24" s="29">
+        <f t="shared" si="5"/>
+        <v>117929</v>
+      </c>
+      <c r="T24" s="29">
+        <f t="shared" si="5"/>
+        <v>116609</v>
+      </c>
+      <c r="U24" s="29">
+        <f>SUM(U20:U23)</f>
+        <v>134902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="9">
+        <f>AVERAGE(135,132,130,129)</f>
+        <v>131.5</v>
+      </c>
+      <c r="K26" s="9">
+        <f>AVERAGE(147,144,142,139)</f>
+        <v>143</v>
+      </c>
+      <c r="L26" s="9">
+        <f>AVERAGE(157,155,152,150)</f>
+        <v>153.5</v>
+      </c>
+      <c r="M26" s="9">
+        <f>AVERAGE(169,167,164,161)</f>
+        <v>165.25</v>
+      </c>
+      <c r="N26" s="9">
+        <f>AVERAGE(180,178,175,173)</f>
+        <v>176.5</v>
+      </c>
+      <c r="O26" s="9">
+        <f>AVERAGE(184,185,183,182)</f>
+        <v>183.5</v>
+      </c>
+      <c r="P26" s="9">
+        <f>AVERAGE(186,185,185,185)</f>
+        <v>185.25</v>
+      </c>
+      <c r="Q26" s="9">
+        <f>AVERAGE(190,189,187,186)</f>
+        <v>188</v>
+      </c>
+      <c r="R26" s="9">
+        <f>AVERAGE(195,196,198,195)</f>
+        <v>196</v>
+      </c>
+      <c r="S26" s="9">
+        <f>AVERAGE(195,196,195,195)</f>
+        <v>195.25</v>
+      </c>
+      <c r="T26" s="9">
+        <f>AVERAGE(199,197,197,196)</f>
+        <v>197.25</v>
+      </c>
+      <c r="U26" s="9">
+        <f>AVERAGE(205,203,202,200)</f>
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J27" s="9">
+        <f>AVERAGE(169,160,154,152)</f>
+        <v>158.75</v>
+      </c>
+      <c r="K27" s="9">
+        <f>AVERAGE(195,188,182,179)</f>
+        <v>186</v>
+      </c>
+      <c r="L27" s="9">
+        <f>AVERAGE(217,212,206,203)</f>
+        <v>209.5</v>
+      </c>
+      <c r="M27" s="9">
+        <f>AVERAGE(240,233,228,225)</f>
+        <v>231.5</v>
+      </c>
+      <c r="N27" s="9">
+        <f>AVERAGE(262,256,252,249)</f>
+        <v>254.75</v>
+      </c>
+      <c r="O27" s="9">
+        <f>AVERAGE(277,274,271,267)</f>
+        <v>272.25</v>
+      </c>
+      <c r="P27" s="9">
+        <f>AVERAGE(282,278,279,282)</f>
+        <v>280.25</v>
+      </c>
+      <c r="Q27" s="9">
+        <f>AVERAGE(294,288,286,286)</f>
+        <v>288.5</v>
+      </c>
+      <c r="R27" s="9">
+        <f>AVERAGE(308,305,305,305)</f>
+        <v>305.75</v>
+      </c>
+      <c r="S27" s="9">
+        <f>AVERAGE(309,308,307,309)</f>
+        <v>308.25</v>
+      </c>
+      <c r="T27" s="9">
+        <f>AVERAGE(304,303,303,307)</f>
+        <v>304.25</v>
+      </c>
+      <c r="U27" s="9">
+        <f>AVERAGE(308,307,307,307)</f>
+        <v>307.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="9">
+        <f>AVERAGE(153,141,129,119)</f>
+        <v>135.5</v>
+      </c>
+      <c r="K28" s="9">
+        <f>AVERAGE(200,189,181,167)</f>
+        <v>184.25</v>
+      </c>
+      <c r="L28" s="9">
+        <f>AVERAGE(253,242,228,216)</f>
+        <v>234.75</v>
+      </c>
+      <c r="M28" s="9">
+        <f>AVERAGE(309,300,285,270)</f>
+        <v>291</v>
+      </c>
+      <c r="N28" s="9">
+        <f>AVERAGE(396,368,346,329)</f>
+        <v>359.75</v>
+      </c>
+      <c r="O28" s="9">
+        <f>AVERAGE(499,476,453,427)</f>
+        <v>463.75</v>
+      </c>
+      <c r="P28" s="9">
+        <f>AVERAGE(577,561,546,529)</f>
+        <v>553.25</v>
+      </c>
+      <c r="Q28" s="9">
+        <f>AVERAGE(641,627,615,600)</f>
+        <v>620.75</v>
+      </c>
+      <c r="R28" s="9">
+        <f>AVERAGE(744,727,699,678)</f>
+        <v>712</v>
+      </c>
+      <c r="S28" s="9">
+        <f>AVERAGE(806,805,788,760)</f>
+        <v>789.75</v>
+      </c>
+      <c r="T28" s="9">
+        <f>AVERAGE(854,845,836,827)</f>
+        <v>840.5</v>
+      </c>
+      <c r="U28" s="9">
+        <f>AVERAGE(914,899,891,873)</f>
+        <v>894.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J29" s="10">
+        <f>AVERAGE(161,152,139,126)</f>
+        <v>144.5</v>
+      </c>
+      <c r="K29" s="10">
+        <f>AVERAGE(216,208,195,180)</f>
+        <v>199.75</v>
+      </c>
+      <c r="L29" s="10">
+        <f>AVERAGE(263,256,244,233)</f>
+        <v>249</v>
+      </c>
+      <c r="M29" s="10">
+        <f>AVERAGE(319,308,292,280)</f>
+        <v>299.75</v>
+      </c>
+      <c r="N29" s="10">
+        <f>AVERAGE(388,377,355,340)</f>
+        <v>365</v>
+      </c>
+      <c r="O29" s="10">
+        <f>AVERAGE(441,433,419,408)</f>
+        <v>425.25</v>
+      </c>
+      <c r="P29" s="10">
+        <f>AVERAGE(478,470,461,453)</f>
+        <v>465.5</v>
+      </c>
+      <c r="Q29" s="10">
+        <f>AVERAGE(532,519,499,490)</f>
+        <v>510</v>
+      </c>
+      <c r="R29" s="10">
+        <f>AVERAGE(598,593,583,556)</f>
+        <v>582.5</v>
+      </c>
+      <c r="S29" s="10">
+        <f>AVERAGE(619,622,618,613)</f>
+        <v>618</v>
+      </c>
+      <c r="T29" s="10">
+        <f>AVERAGE(643,638,631,629)</f>
+        <v>635.25</v>
+      </c>
+      <c r="U29" s="10">
+        <f>AVERAGE(683,676,665,657)</f>
+        <v>670.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(H26:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" ref="I30:T30" si="6">SUM(I26:I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="6"/>
+        <v>570.25</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="6"/>
+        <v>713</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="6"/>
+        <v>846.75</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="6"/>
+        <v>987.5</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="6"/>
+        <v>1156</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="6"/>
+        <v>1344.75</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="6"/>
+        <v>1484.25</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="6"/>
+        <v>1607.25</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="6"/>
+        <v>1796.25</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="6"/>
+        <v>1911.25</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="6"/>
+        <v>1977.25</v>
+      </c>
+      <c r="U30" s="9">
+        <f>SUM(U26:U29)</f>
+        <v>2074.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="23" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="61" t="e">
+        <f>H20/H26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="61" t="e">
+        <f t="shared" ref="I32:S32" si="7">I20/I26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="61">
+        <f t="shared" si="7"/>
+        <v>19.604562737642585</v>
+      </c>
+      <c r="K32" s="61">
+        <f t="shared" si="7"/>
+        <v>25.265734265734267</v>
+      </c>
+      <c r="L32" s="61">
+        <f t="shared" si="7"/>
+        <v>36.801302931596091</v>
+      </c>
+      <c r="M32" s="61">
+        <f t="shared" si="7"/>
+        <v>51.515885022692892</v>
+      </c>
+      <c r="N32" s="61">
+        <f t="shared" si="7"/>
+        <v>71.269121813031163</v>
+      </c>
+      <c r="O32" s="61">
+        <f t="shared" si="7"/>
+        <v>96.643051771117172</v>
+      </c>
+      <c r="P32" s="61">
+        <f t="shared" si="7"/>
+        <v>138.87719298245614</v>
+      </c>
+      <c r="Q32" s="61">
+        <f t="shared" si="7"/>
+        <v>171.30851063829786</v>
+      </c>
+      <c r="R32" s="61">
+        <f t="shared" si="7"/>
+        <v>196.08673469387756</v>
+      </c>
+      <c r="S32" s="61">
+        <f t="shared" si="7"/>
+        <v>263.97439180537771</v>
+      </c>
+      <c r="T32" s="61">
+        <f>T20/T26</f>
+        <v>254.24588086185045</v>
+      </c>
+      <c r="U32" s="61">
+        <f>U20/U26</f>
+        <v>261.17530864197533</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H33" s="61" t="e">
+        <f>H21/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="61" t="e">
+        <f t="shared" ref="I33:S33" si="8">I21/I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="61">
+        <f t="shared" si="8"/>
+        <v>48.63871543264942</v>
+      </c>
+      <c r="Q33" s="61">
+        <f t="shared" si="8"/>
+        <v>58.322357019064128</v>
+      </c>
+      <c r="R33" s="61">
+        <f t="shared" si="8"/>
+        <v>66.554374488961571</v>
+      </c>
+      <c r="S33" s="61">
+        <f t="shared" si="8"/>
+        <v>94.264395782643959</v>
+      </c>
+      <c r="T33" s="61">
+        <f>T21/T27</f>
+        <v>87.694330320460153</v>
+      </c>
+      <c r="U33" s="61">
+        <f>U21/U27</f>
+        <v>101.57851912123678</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="61" t="e">
+        <f>H22/H28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="61" t="e">
+        <f t="shared" ref="I34:S34" si="9">I22/I28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="61">
+        <f t="shared" si="9"/>
+        <v>21.20741075463172</v>
+      </c>
+      <c r="Q34" s="61">
+        <f t="shared" si="9"/>
+        <v>24.818364881192107</v>
+      </c>
+      <c r="R34" s="61">
+        <f t="shared" si="9"/>
+        <v>27.876404494382022</v>
+      </c>
+      <c r="S34" s="61">
+        <f t="shared" si="9"/>
+        <v>33.857549857549856</v>
+      </c>
+      <c r="T34" s="61">
+        <f>T22/T28</f>
+        <v>33.027959547888159</v>
+      </c>
+      <c r="U34" s="61">
+        <f>U22/U28</f>
+        <v>40.429410120212466</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="62" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H35" s="62" t="e">
+        <f>H23/H29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="62" t="e">
+        <f t="shared" ref="I35:S35" si="10">I23/I29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="62">
+        <f t="shared" si="10"/>
+        <v>17.377162629757784</v>
+      </c>
+      <c r="K35" s="62">
+        <f t="shared" si="10"/>
+        <v>21.321652065081352</v>
+      </c>
+      <c r="L35" s="62">
+        <f t="shared" si="10"/>
+        <v>27.377510040160644</v>
+      </c>
+      <c r="M35" s="62">
+        <f t="shared" si="10"/>
+        <v>31.409507923269391</v>
+      </c>
+      <c r="N35" s="62">
+        <f t="shared" si="10"/>
+        <v>41.257534246575339</v>
+      </c>
+      <c r="O35" s="62">
+        <f t="shared" si="10"/>
+        <v>53.895355673133452</v>
+      </c>
+      <c r="P35" s="62">
+        <f t="shared" si="10"/>
+        <v>10.197636949516649</v>
+      </c>
+      <c r="Q35" s="62">
+        <f t="shared" si="10"/>
+        <v>12.272549019607844</v>
+      </c>
+      <c r="R35" s="62">
+        <f t="shared" si="10"/>
+        <v>12.592274678111588</v>
+      </c>
+      <c r="S35" s="62">
+        <f t="shared" si="10"/>
+        <v>17.139158576051781</v>
+      </c>
+      <c r="T35" s="62">
+        <f>T23/T29</f>
+        <v>18.918536009445102</v>
+      </c>
+      <c r="U35" s="62">
+        <f>U23/U29</f>
+        <v>21.857515852293922</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H36" s="61" t="e">
+        <f>H24/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="61" t="e">
+        <f t="shared" ref="I36:S36" si="11">I24/I30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="61">
+        <f t="shared" si="11"/>
+        <v>8.92415607189829</v>
+      </c>
+      <c r="K36" s="61">
+        <f t="shared" si="11"/>
+        <v>11.040673211781206</v>
+      </c>
+      <c r="L36" s="61">
+        <f t="shared" si="11"/>
+        <v>14.72217301446708</v>
+      </c>
+      <c r="M36" s="61">
+        <f t="shared" si="11"/>
+        <v>18.15493670886076</v>
+      </c>
+      <c r="N36" s="61">
+        <f t="shared" si="11"/>
+        <v>23.908304498269896</v>
+      </c>
+      <c r="O36" s="61">
+        <f t="shared" si="11"/>
+        <v>30.23089793641941</v>
+      </c>
+      <c r="P36" s="61">
+        <f t="shared" si="11"/>
+        <v>37.620346976587506</v>
+      </c>
+      <c r="Q36" s="61">
+        <f t="shared" si="11"/>
+        <v>43.986312023642867</v>
+      </c>
+      <c r="R36" s="61">
+        <f t="shared" si="11"/>
+        <v>47.858037578288098</v>
+      </c>
+      <c r="S36" s="61">
+        <f t="shared" si="11"/>
+        <v>61.702550686723349</v>
+      </c>
+      <c r="T36" s="61">
+        <f>T24/T30</f>
+        <v>58.975344544190165</v>
+      </c>
+      <c r="U36" s="61">
+        <f>U24/U30</f>
+        <v>65.03651922381583</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="63" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B37" s="63" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="9">
+        <f>AVERAGE(193,189,186,183)</f>
+        <v>187.75</v>
+      </c>
+      <c r="K38" s="9">
+        <f>AVERAGE(201,199,198,195)</f>
+        <v>198.25</v>
+      </c>
+      <c r="L38" s="9">
+        <f>AVERAGE(208,206,204,202)</f>
+        <v>205</v>
+      </c>
+      <c r="M38" s="9">
+        <f>AVERAGE(219,217,213,210)</f>
+        <v>214.75</v>
+      </c>
+      <c r="N38" s="9">
+        <f>AVERAGE(231,229,226,222)</f>
+        <v>227</v>
+      </c>
+      <c r="O38" s="9">
+        <f>AVERAGE(239,239,236,234)</f>
+        <v>237</v>
+      </c>
+      <c r="P38" s="9">
+        <f>AVERAGE(242,242,241,241)</f>
+        <v>241.5</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>AVERAGE(248,247,244,243)</f>
+        <v>245.5</v>
+      </c>
+      <c r="R38" s="9">
+        <f>AVERAGE(258,255,256,253)</f>
+        <v>255.5</v>
+      </c>
+      <c r="S38" s="9">
+        <f>AVERAGE(262,261,259,259)</f>
+        <v>260.25</v>
+      </c>
+      <c r="T38" s="9">
+        <f>AVERAGE(266,266,264,263)</f>
+        <v>264.75</v>
+      </c>
+      <c r="U38" s="9">
+        <f>AVERAGE(272,271,270,269)</f>
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J39" s="9">
+        <f>AVERAGE(261,253,246,239)</f>
+        <v>249.75</v>
+      </c>
+      <c r="K39" s="9">
+        <f>AVERAGE(282,276,272,269)</f>
+        <v>274.75</v>
+      </c>
+      <c r="L39" s="9">
+        <f>AVERAGE(301,296,292,289)</f>
+        <v>294.5</v>
+      </c>
+      <c r="M39" s="9">
+        <f>AVERAGE(323,315,311,307)</f>
+        <v>314</v>
+      </c>
+      <c r="N39" s="9">
+        <f>AVERAGE(349,342,338,333)</f>
+        <v>340.5</v>
+      </c>
+      <c r="O39" s="9">
+        <f>AVERAGE(370,364,360,354)</f>
+        <v>362</v>
+      </c>
+      <c r="P39" s="9">
+        <f>AVERAGE(381,375,376,377)</f>
+        <v>377.25</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>AVERAGE(394,387,385,384)</f>
+        <v>387.5</v>
+      </c>
+      <c r="R39" s="9">
+        <f>AVERAGE(419,413,410,406)</f>
+        <v>412</v>
+      </c>
+      <c r="S39" s="9">
+        <f>AVERAGE(427,423,420,423)</f>
+        <v>423.25</v>
+      </c>
+      <c r="T39" s="9">
+        <f>AVERAGE(407,408,407,418)</f>
+        <v>410</v>
+      </c>
+      <c r="U39" s="9">
+        <f>AVERAGE(408,408,409,411)</f>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="9">
+        <f>AVERAGE(298,277,255,234)</f>
+        <v>266</v>
+      </c>
+      <c r="K40" s="9">
+        <f>AVERAGE(368,351,339,319)</f>
+        <v>344.25</v>
+      </c>
+      <c r="L40" s="9">
+        <f>AVERAGE(449,426,410,390)</f>
+        <v>418.75</v>
+      </c>
+      <c r="M40" s="9">
+        <f>AVERAGE(540,522,496,471)</f>
+        <v>507.25</v>
+      </c>
+      <c r="N40" s="9">
+        <f>AVERAGE(673,629,592,566)</f>
+        <v>615</v>
+      </c>
+      <c r="O40" s="9">
+        <f>AVERAGE(828,794,756,716)</f>
+        <v>773.5</v>
+      </c>
+      <c r="P40" s="9">
+        <f>AVERAGE(947,917,894,873)</f>
+        <v>907.75</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>AVERAGE(1038,1013,1003,981)</f>
+        <v>1008.75</v>
+      </c>
+      <c r="R40" s="9">
+        <f>AVERAGE(1199,1166,1142,1093)</f>
+        <v>1150</v>
+      </c>
+      <c r="S40" s="9">
+        <f>AVERAGE(1278,1278,1265,1230)</f>
+        <v>1262.75</v>
+      </c>
+      <c r="T40" s="9">
+        <f>AVERAGE(1312,1312,1305,1297)</f>
+        <v>1306.5</v>
+      </c>
+      <c r="U40" s="9">
+        <f>AVERAGE(1367,1357,1349,1324)</f>
+        <v>1349.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J41" s="10">
+        <f>AVERAGE(304,288,268,245)</f>
+        <v>276.25</v>
+      </c>
+      <c r="K41" s="10">
+        <f>AVERAGE(376,362,346,327)</f>
+        <v>352.75</v>
+      </c>
+      <c r="L41" s="10">
+        <f>AVERAGE(436,423,411,395)</f>
+        <v>416.25</v>
+      </c>
+      <c r="M41" s="10">
+        <f>AVERAGE(509,492,471,453)</f>
+        <v>481.25</v>
+      </c>
+      <c r="N41" s="10">
+        <f>AVERAGE(606,587,556,533)</f>
+        <v>570.5</v>
+      </c>
+      <c r="O41" s="10">
+        <f>AVERAGE(692,675,654,632)</f>
+        <v>663.25</v>
+      </c>
+      <c r="P41" s="10">
+        <f>AVERAGE(750,736,723,705)</f>
+        <v>728.5</v>
+      </c>
+      <c r="Q41" s="10">
+        <f>AVERAGE(817,802,782,768)</f>
+        <v>792.25</v>
+      </c>
+      <c r="R41" s="10">
+        <f>AVERAGE(921,906,892,851)</f>
+        <v>892.5</v>
+      </c>
+      <c r="S41" s="10">
+        <f>AVERAGE(945,949,951,940)</f>
+        <v>946.25</v>
+      </c>
+      <c r="T41" s="10">
+        <f>AVERAGE(979,971,959,957)</f>
+        <v>966.5</v>
+      </c>
+      <c r="U41" s="10">
+        <f>AVERAGE(1018,1013,1002,986)</f>
+        <v>1004.75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B42" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H42" s="9">
+        <f>SUM(H38:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" ref="I42:U42" si="12">SUM(I38:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="12"/>
+        <v>979.75</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="12"/>
+        <v>1170</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="12"/>
+        <v>1334.5</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="12"/>
+        <v>1517.25</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="12"/>
+        <v>1753</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="12"/>
+        <v>2035.75</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="12"/>
+        <v>2255</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="12"/>
+        <v>2434</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="12"/>
+        <v>2710</v>
+      </c>
+      <c r="S42" s="9">
+        <f t="shared" si="12"/>
+        <v>2892.5</v>
+      </c>
+      <c r="T42" s="9">
+        <f t="shared" si="12"/>
+        <v>2947.75</v>
+      </c>
+      <c r="U42" s="9">
+        <f t="shared" si="12"/>
+        <v>3033.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+    </row>
+    <row r="44" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="3" t="e">
+        <f>H26/H38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="3" t="e">
+        <f t="shared" ref="I44:T44" si="13">I26/I38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.7003994673768309</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.72131147540983609</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.74878048780487805</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.76949941792782306</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.77753303964757714</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.77426160337552741</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.76708074534161486</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.7657841140529531</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.76712328767123283</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.75024015369836694</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.74504249291784708</v>
+      </c>
+      <c r="U44" s="3">
+        <f>U26/U38</f>
+        <v>0.74861367837338266</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H45" s="3" t="e">
+        <f>H27/H39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="3" t="e">
+        <f t="shared" ref="I45:T45" si="14">I27/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.63563563563563563</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.67697907188353046</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.71137521222410871</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.73726114649681529</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.7481644640234949</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.7520718232044199</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.74287607687210078</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.74451612903225806</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.74211165048543692</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.72829297105729474</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.74207317073170731</v>
+      </c>
+      <c r="U45" s="3">
+        <f>U27/U39</f>
+        <v>0.7512224938875306</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="3" t="e">
+        <f>H28/H40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="3" t="e">
+        <f t="shared" ref="I46:T46" si="15">I28/I40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.50939849624060152</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.5352214960058097</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.56059701492537317</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.5736816165598817</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.58495934959349594</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.59954751131221717</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.60947397411181492</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.61536555142503102</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.61913043478260865</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.62542070877054046</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.64332185227707617</v>
+      </c>
+      <c r="U46" s="3">
+        <f>U28/U40</f>
+        <v>0.66277561608300906</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="64" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H47" s="64" t="e">
+        <f>H29/H41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="64" t="e">
+        <f t="shared" ref="I47:T47" si="16">I29/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="K47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.5662650602409639</v>
+      </c>
+      <c r="L47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.59819819819819819</v>
+      </c>
+      <c r="M47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.62285714285714289</v>
+      </c>
+      <c r="N47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.63978965819456612</v>
+      </c>
+      <c r="O47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.64116094986807393</v>
+      </c>
+      <c r="P47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.63898421413864104</v>
+      </c>
+      <c r="Q47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.64373619438308616</v>
+      </c>
+      <c r="R47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.65266106442577032</v>
+      </c>
+      <c r="S47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.65310435931307798</v>
+      </c>
+      <c r="T47" s="64">
+        <f t="shared" si="16"/>
+        <v>0.65726849456802894</v>
+      </c>
+      <c r="U47" s="64">
+        <f>U29/U41</f>
+        <v>0.66708136352326453</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H48" s="3" t="e">
+        <f>H30/H42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="3" t="e">
+        <f t="shared" ref="I48:T48" si="17">I30/I42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.58203623373309521</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.60940170940170946</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.63450730610715622</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.65084857472400726</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.65944095835710215</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66056735846739534</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.6582039911308204</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66033278553820873</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66282287822878228</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66076058772687984</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="17"/>
+        <v>0.67076583835128489</v>
+      </c>
+      <c r="U48" s="3">
+        <f>U30/U42</f>
+        <v>0.683781110927971</v>
+      </c>
+    </row>
+    <row r="49" spans="2:73" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="50" spans="2:73" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="29">
+        <v>5089</v>
+      </c>
+      <c r="K50" s="29">
+        <v>7872</v>
+      </c>
+      <c r="L50" s="29">
+        <v>12466</v>
+      </c>
+      <c r="M50" s="29">
+        <v>17928</v>
+      </c>
+      <c r="N50" s="29">
+        <v>27638</v>
+      </c>
+      <c r="O50" s="29">
+        <v>40653</v>
+      </c>
+      <c r="P50" s="29">
+        <v>55838</v>
+      </c>
+      <c r="Q50" s="29">
+        <v>70697</v>
+      </c>
+      <c r="R50" s="29">
+        <v>85965</v>
+      </c>
+      <c r="S50" s="29">
+        <v>117929</v>
+      </c>
+      <c r="T50" s="29">
+        <v>116609</v>
+      </c>
+      <c r="U50" s="29">
+        <v>134902</v>
+      </c>
+      <c r="V50" s="29">
+        <f>U50*(1+V70)</f>
+        <v>155137.29999999999</v>
+      </c>
+      <c r="W50" s="29">
+        <f t="shared" ref="W50:AB50" si="18">V50*(1+W70)</f>
+        <v>178407.89499999996</v>
+      </c>
+      <c r="X50" s="29">
+        <f t="shared" si="18"/>
+        <v>205169.07924999995</v>
+      </c>
+      <c r="Y50" s="29">
+        <f t="shared" si="18"/>
+        <v>235944.44113749993</v>
+      </c>
+      <c r="Z50" s="29">
+        <f t="shared" si="18"/>
+        <v>271336.10730812489</v>
+      </c>
+      <c r="AA50" s="29">
+        <f t="shared" si="18"/>
+        <v>312036.52340434358</v>
+      </c>
+      <c r="AB50" s="29">
+        <f t="shared" si="18"/>
+        <v>358842.00191499508</v>
+      </c>
+    </row>
+    <row r="51" spans="2:73" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="10">
+        <v>1364</v>
+      </c>
+      <c r="K51" s="10">
+        <v>1875</v>
+      </c>
+      <c r="L51" s="10">
+        <v>2153</v>
+      </c>
+      <c r="M51" s="10">
+        <v>2867</v>
+      </c>
+      <c r="N51" s="10">
+        <v>3789</v>
+      </c>
+      <c r="O51" s="10">
+        <v>5454</v>
+      </c>
+      <c r="P51" s="10">
+        <v>9355</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>12770</v>
+      </c>
+      <c r="R51" s="10">
+        <v>16692</v>
+      </c>
+      <c r="S51" s="10">
+        <v>22649</v>
+      </c>
+      <c r="T51" s="10">
+        <v>25249</v>
+      </c>
+      <c r="U51" s="10">
+        <v>25959</v>
+      </c>
+    </row>
+    <row r="52" spans="2:73" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H52" s="9">
+        <f>H50-H51</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" ref="I52:T52" si="19">I50-I51</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="19"/>
+        <v>3725</v>
+      </c>
+      <c r="K52" s="9">
+        <f t="shared" si="19"/>
+        <v>5997</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="19"/>
+        <v>10313</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="19"/>
+        <v>15061</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="19"/>
+        <v>23849</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="19"/>
+        <v>35199</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="19"/>
+        <v>46483</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="19"/>
+        <v>57927</v>
+      </c>
+      <c r="R52" s="9">
+        <f t="shared" si="19"/>
+        <v>69273</v>
+      </c>
+      <c r="S52" s="9">
+        <f t="shared" si="19"/>
+        <v>95280</v>
+      </c>
+      <c r="T52" s="9">
+        <f t="shared" si="19"/>
+        <v>91360</v>
+      </c>
+      <c r="U52" s="9">
+        <f>U50-U51</f>
+        <v>108943</v>
+      </c>
+      <c r="V52" s="9">
+        <f>V50*V75</f>
+        <v>124109.84</v>
+      </c>
+      <c r="W52" s="9">
+        <f t="shared" ref="W52:AB52" si="20">W50*W75</f>
+        <v>142726.31599999996</v>
+      </c>
+      <c r="X52" s="9">
+        <f t="shared" si="20"/>
+        <v>164135.26339999997</v>
+      </c>
+      <c r="Y52" s="9">
+        <f t="shared" si="20"/>
+        <v>188755.55290999997</v>
+      </c>
+      <c r="Z52" s="9">
+        <f t="shared" si="20"/>
+        <v>217068.88584649994</v>
+      </c>
+      <c r="AA52" s="9">
+        <f t="shared" si="20"/>
+        <v>249629.21872347489</v>
+      </c>
+      <c r="AB52" s="9">
+        <f t="shared" si="20"/>
+        <v>287073.6015319961</v>
+      </c>
+    </row>
+    <row r="53" spans="2:73" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="9">
+        <v>1399</v>
+      </c>
+      <c r="K53" s="9">
+        <v>1415</v>
+      </c>
+      <c r="L53" s="9">
+        <v>2666</v>
+      </c>
+      <c r="M53" s="9">
+        <v>4816</v>
+      </c>
+      <c r="N53" s="9">
+        <v>5919</v>
+      </c>
+      <c r="O53" s="9">
+        <v>7754</v>
+      </c>
+      <c r="P53" s="9">
+        <v>10273</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>13600</v>
+      </c>
+      <c r="R53" s="9">
+        <v>18447</v>
+      </c>
+      <c r="S53" s="9">
+        <v>24655</v>
+      </c>
+      <c r="T53" s="9">
+        <v>35338</v>
+      </c>
+      <c r="U53" s="9">
+        <v>38483</v>
+      </c>
+      <c r="V53" s="9">
+        <f>V$50*V81</f>
+        <v>35681.578999999998</v>
+      </c>
+      <c r="W53" s="9">
+        <f t="shared" ref="W53:AB53" si="21">W$50*W81</f>
+        <v>41033.815849999992</v>
+      </c>
+      <c r="X53" s="9">
+        <f t="shared" si="21"/>
+        <v>47188.888227499992</v>
+      </c>
+      <c r="Y53" s="9">
+        <f t="shared" si="21"/>
+        <v>54267.221461624984</v>
+      </c>
+      <c r="Z53" s="9">
+        <f t="shared" si="21"/>
+        <v>62407.304680868729</v>
+      </c>
+      <c r="AA53" s="9">
+        <f t="shared" si="21"/>
+        <v>71768.400382999025</v>
+      </c>
+      <c r="AB53" s="9">
+        <f t="shared" si="21"/>
+        <v>82533.660440448875</v>
+      </c>
+    </row>
+    <row r="54" spans="2:73" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J54" s="9">
+        <v>896</v>
+      </c>
+      <c r="K54" s="9">
+        <v>997</v>
+      </c>
+      <c r="L54" s="9">
+        <v>1680</v>
+      </c>
+      <c r="M54" s="9">
+        <v>2725</v>
+      </c>
+      <c r="N54" s="9">
+        <v>3772</v>
+      </c>
+      <c r="O54" s="9">
+        <v>4725</v>
+      </c>
+      <c r="P54" s="9">
+        <v>7846</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>9876</v>
+      </c>
+      <c r="R54" s="9">
+        <v>11591</v>
+      </c>
+      <c r="S54" s="9">
+        <v>14043</v>
+      </c>
+      <c r="T54" s="9">
+        <v>15262</v>
+      </c>
+      <c r="U54" s="9">
+        <v>12301</v>
+      </c>
+      <c r="V54" s="9">
+        <f>V$50*V82</f>
+        <v>18616.475999999999</v>
+      </c>
+      <c r="W54" s="9">
+        <f t="shared" ref="W54:AB54" si="22">W$50*W82</f>
+        <v>21408.947399999994</v>
+      </c>
+      <c r="X54" s="9">
+        <f t="shared" si="22"/>
+        <v>24620.289509999995</v>
+      </c>
+      <c r="Y54" s="9">
+        <f t="shared" si="22"/>
+        <v>28313.332936499992</v>
+      </c>
+      <c r="Z54" s="9">
+        <f t="shared" si="22"/>
+        <v>32560.332876974986</v>
+      </c>
+      <c r="AA54" s="9">
+        <f t="shared" si="22"/>
+        <v>37444.38280852123</v>
+      </c>
+      <c r="AB54" s="9">
+        <f t="shared" si="22"/>
+        <v>43061.040229799408</v>
+      </c>
+    </row>
+    <row r="55" spans="2:73" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J55" s="10">
+        <v>892</v>
+      </c>
+      <c r="K55" s="10">
+        <v>781</v>
+      </c>
+      <c r="L55" s="10">
+        <v>973</v>
+      </c>
+      <c r="M55" s="10">
+        <v>1295</v>
+      </c>
+      <c r="N55" s="10">
+        <v>1731</v>
+      </c>
+      <c r="O55" s="10">
+        <v>2517</v>
+      </c>
+      <c r="P55" s="10">
+        <v>3451</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>10465</v>
+      </c>
+      <c r="R55" s="10">
+        <v>6564</v>
+      </c>
+      <c r="S55" s="10">
+        <v>9829</v>
+      </c>
+      <c r="T55" s="10">
+        <v>11816</v>
+      </c>
+      <c r="U55" s="10">
+        <v>11408</v>
+      </c>
+      <c r="V55" s="65">
+        <f>V$50*V83</f>
+        <v>13962.356999999998</v>
+      </c>
+      <c r="W55" s="65">
+        <f t="shared" ref="W55:AB55" si="23">W$50*W83</f>
+        <v>16056.710549999996</v>
+      </c>
+      <c r="X55" s="65">
+        <f t="shared" si="23"/>
+        <v>18465.217132499994</v>
+      </c>
+      <c r="Y55" s="65">
+        <f t="shared" si="23"/>
+        <v>21234.999702374993</v>
+      </c>
+      <c r="Z55" s="65">
+        <f t="shared" si="23"/>
+        <v>24420.249657731238</v>
+      </c>
+      <c r="AA55" s="65">
+        <f t="shared" si="23"/>
+        <v>28083.287106390922</v>
+      </c>
+      <c r="AB55" s="65">
+        <f t="shared" si="23"/>
+        <v>32295.780172349558</v>
+      </c>
+    </row>
+    <row r="56" spans="2:73" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H56" s="11">
+        <f>SUM(H53:H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" ref="I56:T56" si="24">SUM(I53:I55)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <f t="shared" si="24"/>
+        <v>3187</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="24"/>
+        <v>3193</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="24"/>
+        <v>5319</v>
+      </c>
+      <c r="M56" s="11">
+        <f t="shared" si="24"/>
+        <v>8836</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" si="24"/>
+        <v>11422</v>
+      </c>
+      <c r="O56" s="11">
+        <f t="shared" si="24"/>
+        <v>14996</v>
+      </c>
+      <c r="P56" s="11">
+        <f t="shared" si="24"/>
+        <v>21570</v>
+      </c>
+      <c r="Q56" s="11">
+        <f t="shared" si="24"/>
+        <v>33941</v>
+      </c>
+      <c r="R56" s="11">
+        <f t="shared" si="24"/>
+        <v>36602</v>
+      </c>
+      <c r="S56" s="11">
+        <f t="shared" si="24"/>
+        <v>48527</v>
+      </c>
+      <c r="T56" s="11">
+        <f t="shared" si="24"/>
+        <v>62416</v>
+      </c>
+      <c r="U56" s="11">
+        <f>SUM(U53:U55)</f>
+        <v>62192</v>
+      </c>
+      <c r="V56" s="11">
+        <f t="shared" ref="V56:AB56" si="25">SUM(V53:V55)</f>
+        <v>68260.411999999997</v>
+      </c>
+      <c r="W56" s="11">
+        <f t="shared" si="25"/>
+        <v>78499.473799999978</v>
+      </c>
+      <c r="X56" s="11">
+        <f t="shared" si="25"/>
+        <v>90274.394869999989</v>
+      </c>
+      <c r="Y56" s="11">
+        <f t="shared" si="25"/>
+        <v>103815.55410049997</v>
+      </c>
+      <c r="Z56" s="11">
+        <f t="shared" si="25"/>
+        <v>119387.88721557496</v>
+      </c>
+      <c r="AA56" s="11">
+        <f t="shared" si="25"/>
+        <v>137296.07029791118</v>
+      </c>
+      <c r="AB56" s="11">
+        <f t="shared" si="25"/>
+        <v>157890.48084259784</v>
+      </c>
+    </row>
+    <row r="57" spans="2:73" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29">
+        <f>H52-H56</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="29">
+        <f t="shared" ref="I57:T57" si="26">I52-I56</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="29">
+        <f t="shared" si="26"/>
+        <v>538</v>
+      </c>
+      <c r="K57" s="29">
+        <f t="shared" si="26"/>
+        <v>2804</v>
+      </c>
+      <c r="L57" s="29">
+        <f t="shared" si="26"/>
+        <v>4994</v>
+      </c>
+      <c r="M57" s="29">
+        <f t="shared" si="26"/>
+        <v>6225</v>
+      </c>
+      <c r="N57" s="29">
+        <f t="shared" si="26"/>
+        <v>12427</v>
+      </c>
+      <c r="O57" s="29">
+        <f t="shared" si="26"/>
+        <v>20203</v>
+      </c>
+      <c r="P57" s="29">
+        <f t="shared" si="26"/>
+        <v>24913</v>
+      </c>
+      <c r="Q57" s="29">
+        <f t="shared" si="26"/>
+        <v>23986</v>
+      </c>
+      <c r="R57" s="29">
+        <f t="shared" si="26"/>
+        <v>32671</v>
+      </c>
+      <c r="S57" s="29">
+        <f t="shared" si="26"/>
+        <v>46753</v>
+      </c>
+      <c r="T57" s="29">
+        <f t="shared" si="26"/>
+        <v>28944</v>
+      </c>
+      <c r="U57" s="29">
+        <f>U52-U56</f>
+        <v>46751</v>
+      </c>
+      <c r="V57" s="29">
+        <f t="shared" ref="V57:AB57" si="27">V52-V56</f>
+        <v>55849.428</v>
+      </c>
+      <c r="W57" s="29">
+        <f t="shared" si="27"/>
+        <v>64226.842199999985</v>
+      </c>
+      <c r="X57" s="29">
+        <f t="shared" si="27"/>
+        <v>73860.868529999978</v>
+      </c>
+      <c r="Y57" s="29">
+        <f t="shared" si="27"/>
+        <v>84939.998809500001</v>
+      </c>
+      <c r="Z57" s="29">
+        <f t="shared" si="27"/>
+        <v>97680.99863092498</v>
+      </c>
+      <c r="AA57" s="29">
+        <f t="shared" si="27"/>
+        <v>112333.1484255637</v>
+      </c>
+      <c r="AB57" s="29">
+        <f t="shared" si="27"/>
+        <v>129183.12068939826</v>
+      </c>
+    </row>
+    <row r="58" spans="2:73" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J58" s="10">
+        <v>-44</v>
+      </c>
+      <c r="K58" s="10">
+        <v>-50</v>
+      </c>
+      <c r="L58" s="10">
+        <v>-84</v>
+      </c>
+      <c r="M58" s="10">
+        <v>-31</v>
+      </c>
+      <c r="N58" s="10">
+        <v>91</v>
+      </c>
+      <c r="O58" s="10">
+        <v>391</v>
+      </c>
+      <c r="P58" s="10">
+        <v>448</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>826</v>
+      </c>
+      <c r="R58" s="10">
+        <v>509</v>
+      </c>
+      <c r="S58" s="10">
+        <v>531</v>
+      </c>
+      <c r="T58" s="10">
+        <v>-125</v>
+      </c>
+      <c r="U58" s="10">
+        <v>677</v>
+      </c>
+      <c r="V58" s="10">
+        <v>0</v>
+      </c>
+      <c r="W58" s="10">
+        <v>0</v>
+      </c>
+      <c r="X58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:73" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="9">
+        <f>SUM(H57:H58)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" ref="I59:T59" si="28">SUM(I57:I58)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="28"/>
+        <v>494</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="28"/>
+        <v>2754</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="28"/>
+        <v>4910</v>
+      </c>
+      <c r="M59" s="9">
+        <f t="shared" si="28"/>
+        <v>6194</v>
+      </c>
+      <c r="N59" s="9">
+        <f t="shared" si="28"/>
+        <v>12518</v>
+      </c>
+      <c r="O59" s="9">
+        <f t="shared" si="28"/>
+        <v>20594</v>
+      </c>
+      <c r="P59" s="9">
+        <f t="shared" si="28"/>
+        <v>25361</v>
+      </c>
+      <c r="Q59" s="9">
+        <f t="shared" si="28"/>
+        <v>24812</v>
+      </c>
+      <c r="R59" s="9">
+        <f t="shared" si="28"/>
+        <v>33180</v>
+      </c>
+      <c r="S59" s="9">
+        <f t="shared" si="28"/>
+        <v>47284</v>
+      </c>
+      <c r="T59" s="9">
+        <f t="shared" si="28"/>
+        <v>28819</v>
+      </c>
+      <c r="U59" s="9">
+        <f>SUM(U57:U58)</f>
+        <v>47428</v>
+      </c>
+      <c r="V59" s="9">
+        <f t="shared" ref="V59:AB59" si="29">SUM(V57:V58)</f>
+        <v>55849.428</v>
+      </c>
+      <c r="W59" s="9">
+        <f t="shared" si="29"/>
+        <v>64226.842199999985</v>
+      </c>
+      <c r="X59" s="9">
+        <f t="shared" si="29"/>
+        <v>73860.868529999978</v>
+      </c>
+      <c r="Y59" s="9">
+        <f t="shared" si="29"/>
+        <v>84939.998809500001</v>
+      </c>
+      <c r="Z59" s="9">
+        <f t="shared" si="29"/>
+        <v>97680.99863092498</v>
+      </c>
+      <c r="AA59" s="9">
+        <f t="shared" si="29"/>
+        <v>112333.1484255637</v>
+      </c>
+      <c r="AB59" s="9">
+        <f t="shared" si="29"/>
+        <v>129183.12068939826</v>
+      </c>
+    </row>
+    <row r="60" spans="2:73" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J60" s="9">
+        <v>21</v>
+      </c>
+      <c r="K60" s="9">
+        <v>9</v>
+      </c>
+      <c r="L60" s="9">
+        <v>15</v>
+      </c>
+      <c r="M60" s="9">
+        <v>19</v>
+      </c>
+      <c r="N60" s="9">
+        <v>29</v>
+      </c>
+      <c r="O60" s="9">
+        <v>14</v>
+      </c>
+      <c r="P60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>0</v>
+      </c>
+      <c r="R60" s="9">
+        <v>0</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="T60" s="9">
+        <v>0</v>
+      </c>
+      <c r="U60" s="9">
+        <v>0</v>
+      </c>
+      <c r="V60" s="9">
+        <v>0</v>
+      </c>
+      <c r="W60" s="9">
+        <v>0</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:73" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J61" s="10">
+        <v>441</v>
+      </c>
+      <c r="K61" s="10">
+        <v>1254</v>
+      </c>
+      <c r="L61" s="10">
+        <v>1970</v>
+      </c>
+      <c r="M61" s="10">
+        <v>2506</v>
+      </c>
+      <c r="N61" s="10">
+        <v>2301</v>
+      </c>
+      <c r="O61" s="10">
+        <v>4660</v>
+      </c>
+      <c r="P61" s="10">
+        <v>3249</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>6327</v>
+      </c>
+      <c r="R61" s="10">
+        <v>4034</v>
+      </c>
+      <c r="S61" s="10">
+        <v>7914</v>
+      </c>
+      <c r="T61" s="10">
+        <v>5619</v>
+      </c>
+      <c r="U61" s="10">
+        <v>8330</v>
+      </c>
+      <c r="V61" s="10">
+        <f>V59*V78</f>
+        <v>13962.357</v>
+      </c>
+      <c r="W61" s="10">
+        <f t="shared" ref="W61:AB61" si="30">W59*W78</f>
+        <v>16056.710549999996</v>
+      </c>
+      <c r="X61" s="10">
+        <f t="shared" si="30"/>
+        <v>18465.217132499994</v>
+      </c>
+      <c r="Y61" s="10">
+        <f t="shared" si="30"/>
+        <v>21234.999702375</v>
+      </c>
+      <c r="Z61" s="10">
+        <f t="shared" si="30"/>
+        <v>24420.249657731245</v>
+      </c>
+      <c r="AA61" s="10">
+        <f t="shared" si="30"/>
+        <v>28083.287106390926</v>
+      </c>
+      <c r="AB61" s="10">
+        <f t="shared" si="30"/>
+        <v>32295.780172349565</v>
+      </c>
+    </row>
+    <row r="62" spans="2:73" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="9">
+        <f>H59-H61-H60</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <f t="shared" ref="I62:U62" si="31">I59-I61-I60</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="31"/>
+        <v>32</v>
+      </c>
+      <c r="K62" s="9">
+        <f t="shared" si="31"/>
+        <v>1491</v>
+      </c>
+      <c r="L62" s="9">
+        <f t="shared" si="31"/>
+        <v>2925</v>
+      </c>
+      <c r="M62" s="9">
+        <f t="shared" si="31"/>
+        <v>3669</v>
+      </c>
+      <c r="N62" s="9">
+        <f t="shared" si="31"/>
+        <v>10188</v>
+      </c>
+      <c r="O62" s="9">
+        <f t="shared" si="31"/>
+        <v>15920</v>
+      </c>
+      <c r="P62" s="9">
+        <f t="shared" si="31"/>
+        <v>22112</v>
+      </c>
+      <c r="Q62" s="9">
+        <f t="shared" si="31"/>
+        <v>18485</v>
+      </c>
+      <c r="R62" s="9">
+        <f t="shared" si="31"/>
+        <v>29146</v>
+      </c>
+      <c r="S62" s="9">
+        <f t="shared" si="31"/>
+        <v>39370</v>
+      </c>
+      <c r="T62" s="9">
+        <f t="shared" si="31"/>
+        <v>23200</v>
+      </c>
+      <c r="U62" s="9">
+        <f t="shared" si="31"/>
+        <v>39098</v>
+      </c>
+      <c r="V62" s="9">
+        <f t="shared" ref="V62" si="32">V59-V61-V60</f>
+        <v>41887.070999999996</v>
+      </c>
+      <c r="W62" s="9">
+        <f t="shared" ref="W62" si="33">W59-W61-W60</f>
+        <v>48170.131649999988</v>
+      </c>
+      <c r="X62" s="9">
+        <f t="shared" ref="X62" si="34">X59-X61-X60</f>
+        <v>55395.651397499983</v>
+      </c>
+      <c r="Y62" s="9">
+        <f t="shared" ref="Y62" si="35">Y59-Y61-Y60</f>
+        <v>63704.999107124997</v>
+      </c>
+      <c r="Z62" s="9">
+        <f t="shared" ref="Z62" si="36">Z59-Z61-Z60</f>
+        <v>73260.748973193738</v>
+      </c>
+      <c r="AA62" s="9">
+        <f t="shared" ref="AA62" si="37">AA59-AA61-AA60</f>
+        <v>84249.861319172778</v>
+      </c>
+      <c r="AB62" s="9">
+        <f t="shared" ref="AB62" si="38">AB59-AB61-AB60</f>
+        <v>96887.340517048695</v>
+      </c>
+      <c r="AC62" s="9">
+        <f>AB62*(1+$AF$86)</f>
+        <v>97856.213922219176</v>
+      </c>
+      <c r="AD62" s="9">
+        <f t="shared" ref="AD62:BU62" si="39">AC62*(1+$AF$86)</f>
+        <v>98834.776061441371</v>
+      </c>
+      <c r="AE62" s="9">
+        <f t="shared" si="39"/>
+        <v>99823.123822055786</v>
+      </c>
+      <c r="AF62" s="9">
+        <f t="shared" si="39"/>
+        <v>100821.35506027634</v>
+      </c>
+      <c r="AG62" s="9">
+        <f t="shared" si="39"/>
+        <v>101829.56861087911</v>
+      </c>
+      <c r="AH62" s="9">
+        <f t="shared" si="39"/>
+        <v>102847.8642969879</v>
+      </c>
+      <c r="AI62" s="9">
+        <f t="shared" si="39"/>
+        <v>103876.34293995779</v>
+      </c>
+      <c r="AJ62" s="9">
+        <f t="shared" si="39"/>
+        <v>104915.10636935737</v>
+      </c>
+      <c r="AK62" s="9">
+        <f t="shared" si="39"/>
+        <v>105964.25743305094</v>
+      </c>
+      <c r="AL62" s="9">
+        <f t="shared" si="39"/>
+        <v>107023.90000738145</v>
+      </c>
+      <c r="AM62" s="9">
+        <f t="shared" si="39"/>
+        <v>108094.13900745526</v>
+      </c>
+      <c r="AN62" s="9">
+        <f t="shared" si="39"/>
+        <v>109175.08039752982</v>
+      </c>
+      <c r="AO62" s="9">
+        <f t="shared" si="39"/>
+        <v>110266.83120150512</v>
+      </c>
+      <c r="AP62" s="9">
+        <f t="shared" si="39"/>
+        <v>111369.49951352018</v>
+      </c>
+      <c r="AQ62" s="9">
+        <f t="shared" si="39"/>
+        <v>112483.19450865538</v>
+      </c>
+      <c r="AR62" s="9">
+        <f t="shared" si="39"/>
+        <v>113608.02645374193</v>
+      </c>
+      <c r="AS62" s="9">
+        <f t="shared" si="39"/>
+        <v>114744.10671827935</v>
+      </c>
+      <c r="AT62" s="9">
+        <f t="shared" si="39"/>
+        <v>115891.54778546214</v>
+      </c>
+      <c r="AU62" s="9">
+        <f t="shared" si="39"/>
+        <v>117050.46326331676</v>
+      </c>
+      <c r="AV62" s="9">
+        <f t="shared" si="39"/>
+        <v>118220.96789594993</v>
+      </c>
+      <c r="AW62" s="9">
+        <f t="shared" si="39"/>
+        <v>119403.17757490942</v>
+      </c>
+      <c r="AX62" s="9">
+        <f t="shared" si="39"/>
+        <v>120597.20935065852</v>
+      </c>
+      <c r="AY62" s="9">
+        <f t="shared" si="39"/>
+        <v>121803.18144416511</v>
+      </c>
+      <c r="AZ62" s="9">
+        <f t="shared" si="39"/>
+        <v>123021.21325860676</v>
+      </c>
+      <c r="BA62" s="9">
+        <f t="shared" si="39"/>
+        <v>124251.42539119282</v>
+      </c>
+      <c r="BB62" s="9">
+        <f t="shared" si="39"/>
+        <v>125493.93964510475</v>
+      </c>
+      <c r="BC62" s="9">
+        <f t="shared" si="39"/>
+        <v>126748.8790415558</v>
+      </c>
+      <c r="BD62" s="9">
+        <f t="shared" si="39"/>
+        <v>128016.36783197137</v>
+      </c>
+      <c r="BE62" s="9">
+        <f t="shared" si="39"/>
+        <v>129296.53151029108</v>
+      </c>
+      <c r="BF62" s="9">
+        <f t="shared" si="39"/>
+        <v>130589.49682539399</v>
+      </c>
+      <c r="BG62" s="9">
+        <f t="shared" si="39"/>
+        <v>131895.39179364793</v>
+      </c>
+      <c r="BH62" s="9">
+        <f t="shared" si="39"/>
+        <v>133214.34571158441</v>
+      </c>
+      <c r="BI62" s="9">
+        <f t="shared" si="39"/>
+        <v>134546.48916870024</v>
+      </c>
+      <c r="BJ62" s="9">
+        <f t="shared" si="39"/>
+        <v>135891.95406038724</v>
+      </c>
+      <c r="BK62" s="9">
+        <f t="shared" si="39"/>
+        <v>137250.87360099112</v>
+      </c>
+      <c r="BL62" s="9">
+        <f t="shared" si="39"/>
+        <v>138623.38233700104</v>
+      </c>
+      <c r="BM62" s="9">
+        <f t="shared" si="39"/>
+        <v>140009.61616037105</v>
+      </c>
+      <c r="BN62" s="9">
+        <f t="shared" si="39"/>
+        <v>141409.71232197477</v>
+      </c>
+      <c r="BO62" s="9">
+        <f t="shared" si="39"/>
+        <v>142823.80944519452</v>
+      </c>
+      <c r="BP62" s="9">
+        <f t="shared" si="39"/>
+        <v>144252.04753964648</v>
+      </c>
+      <c r="BQ62" s="9">
+        <f t="shared" si="39"/>
+        <v>145694.56801504295</v>
+      </c>
+      <c r="BR62" s="9">
+        <f t="shared" si="39"/>
+        <v>147151.5136951934</v>
+      </c>
+      <c r="BS62" s="9">
+        <f t="shared" si="39"/>
+        <v>148623.02883214533</v>
+      </c>
+      <c r="BT62" s="9">
+        <f t="shared" si="39"/>
+        <v>150109.25912046677</v>
+      </c>
+      <c r="BU62" s="9">
+        <f t="shared" si="39"/>
+        <v>151610.35171167145</v>
+      </c>
+    </row>
+    <row r="64" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="8" t="e">
+        <f>H62/H66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="8" t="e">
+        <f t="shared" ref="I64:T64" si="40">I62/I66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5952143569292122E-2</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="40"/>
+        <v>0.61611570247933889</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="40"/>
+        <v>1.1189747513389441</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" si="40"/>
+        <v>1.3089546914020691</v>
+      </c>
+      <c r="N64" s="8">
+        <f t="shared" si="40"/>
+        <v>3.5585050646175342</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="40"/>
+        <v>5.4877628403998617</v>
+      </c>
+      <c r="P64" s="8">
+        <f t="shared" si="40"/>
+        <v>7.6512110726643598</v>
+      </c>
+      <c r="Q64" s="8">
+        <f t="shared" si="40"/>
+        <v>6.47687456201822</v>
+      </c>
+      <c r="R64" s="8">
+        <f t="shared" si="40"/>
+        <v>10.223079621185549</v>
+      </c>
+      <c r="S64" s="8">
+        <f t="shared" si="40"/>
+        <v>13.985790408525755</v>
+      </c>
+      <c r="T64" s="8">
+        <f t="shared" si="40"/>
+        <v>8.6341644957201336</v>
+      </c>
+      <c r="U64" s="8">
+        <f>U62/U66</f>
+        <v>15.189588189588189</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="8" t="e">
+        <f>H62/H67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="8" t="e">
+        <f t="shared" ref="I65:T65" si="41">I62/I67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="8">
+        <f t="shared" si="41"/>
+        <v>1.4773776546629732E-2</v>
+      </c>
+      <c r="K65" s="8">
+        <f t="shared" si="41"/>
+        <v>0.59237187127532775</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="41"/>
+        <v>1.097972972972973</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="41"/>
+        <v>1.2860147213459516</v>
+      </c>
+      <c r="N65" s="8">
+        <f t="shared" si="41"/>
+        <v>3.483076923076923</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="41"/>
+        <v>5.3856562922868738</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="41"/>
+        <v>7.5700102704553238</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" si="41"/>
+        <v>6.4273296244784426</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" si="41"/>
+        <v>10.092105263157896</v>
+      </c>
+      <c r="S65" s="8">
+        <f t="shared" si="41"/>
+        <v>13.770549143057012</v>
+      </c>
+      <c r="T65" s="8">
+        <f t="shared" si="41"/>
+        <v>8.5862324204293117</v>
+      </c>
+      <c r="U65" s="8">
+        <f>U62/U67</f>
+        <v>14.871814378090528</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" s="9">
+        <v>2006</v>
+      </c>
+      <c r="K66" s="9">
+        <v>2420</v>
+      </c>
+      <c r="L66" s="9">
+        <v>2614</v>
+      </c>
+      <c r="M66" s="9">
+        <v>2803</v>
+      </c>
+      <c r="N66" s="9">
+        <v>2863</v>
+      </c>
+      <c r="O66" s="9">
+        <v>2901</v>
+      </c>
+      <c r="P66" s="9">
+        <v>2890</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>2854</v>
+      </c>
+      <c r="R66" s="9">
+        <v>2851</v>
+      </c>
+      <c r="S66" s="9">
+        <v>2815</v>
+      </c>
+      <c r="T66" s="9">
+        <v>2687</v>
+      </c>
+      <c r="U66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="V66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="W66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="X66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>2574</v>
+      </c>
+      <c r="AB66" s="9">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J67" s="9">
+        <v>2166</v>
+      </c>
+      <c r="K67" s="9">
+        <v>2517</v>
+      </c>
+      <c r="L67" s="9">
+        <v>2664</v>
+      </c>
+      <c r="M67" s="9">
+        <v>2853</v>
+      </c>
+      <c r="N67" s="9">
+        <v>2925</v>
+      </c>
+      <c r="O67" s="9">
+        <v>2956</v>
+      </c>
+      <c r="P67" s="9">
+        <v>2921</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>2876</v>
+      </c>
+      <c r="R67" s="9">
+        <v>2888</v>
+      </c>
+      <c r="S67" s="9">
+        <v>2859</v>
+      </c>
+      <c r="T67" s="9">
+        <v>2702</v>
+      </c>
+      <c r="U67" s="9">
+        <v>2629</v>
+      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="69" spans="2:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="23" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H70" s="3" t="e">
+        <f>H50/G50-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" s="3" t="e">
+        <f t="shared" ref="I70:T70" si="42">I50/H50-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J70" s="3" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.5468657889565729</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.58358739837398366</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.43815177282207607</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.54161088799643009</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.47090961719371882</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.37352716896661997</v>
+      </c>
+      <c r="Q70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.26610910132884413</v>
+      </c>
+      <c r="R70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.21596390228722573</v>
+      </c>
+      <c r="S70" s="3">
+        <f t="shared" si="42"/>
+        <v>0.37182574303495608</v>
+      </c>
+      <c r="T70" s="3">
+        <f t="shared" si="42"/>
+        <v>-1.1193175554782941E-2</v>
+      </c>
+      <c r="U70" s="3">
+        <f>U50/T50-1</f>
+        <v>0.15687468377226454</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="23" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H75" s="3" t="e">
+        <f>H52/H50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" s="3" t="e">
+        <f t="shared" ref="I75:T75" si="43">I52/I50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.73197091766555311</v>
+      </c>
+      <c r="K75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.76181402439024393</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.82729022942403341</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.84008255243195007</v>
+      </c>
+      <c r="N75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.86290614371517471</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.86584015939783043</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.8324617643898421</v>
+      </c>
+      <c r="Q75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.81936998741106415</v>
+      </c>
+      <c r="R75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.80582795323678236</v>
+      </c>
+      <c r="S75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.80794376277251567</v>
+      </c>
+      <c r="T75" s="3">
+        <f t="shared" si="43"/>
+        <v>0.78347297378418479</v>
+      </c>
+      <c r="U75" s="3">
+        <f>U52/U50</f>
+        <v>0.8075714222176098</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H76" s="3" t="e">
+        <f>H57/H50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="3" t="e">
+        <f t="shared" ref="I76:T76" si="44">I57/I50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.10571821575948123</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.35619918699186992</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.40060965827049577</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.44963456111151312</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.49696209381841439</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.44616569361366809</v>
+      </c>
+      <c r="Q76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.33927889443682191</v>
+      </c>
+      <c r="R76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.3800500203571221</v>
+      </c>
+      <c r="S76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.39645040660058173</v>
+      </c>
+      <c r="T76" s="3">
+        <f t="shared" si="44"/>
+        <v>0.24821411726367604</v>
+      </c>
+      <c r="U76" s="3">
+        <f>U57/U50</f>
+        <v>0.34655527716416362</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H77" s="3" t="e">
+        <f>H62/H50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="3" t="e">
+        <f t="shared" ref="I77:T77" si="45">I62/I50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="45"/>
+        <v>6.2880723128315979E-3</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.18940548780487804</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.23463821594737685</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.20465194109772422</v>
+      </c>
+      <c r="N77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.36862291048556334</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.39160701547241283</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.39600272216053584</v>
+      </c>
+      <c r="Q77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.26146795479298979</v>
+      </c>
+      <c r="R77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.3390449601582039</v>
+      </c>
+      <c r="S77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.33384494059985248</v>
+      </c>
+      <c r="T77" s="3">
+        <f t="shared" si="45"/>
+        <v>0.19895548371051977</v>
+      </c>
+      <c r="U77" s="3">
+        <f>U62/U50</f>
+        <v>0.28982520644616094</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H78" s="3" t="e">
+        <f>H61/H59</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="3" t="e">
+        <f t="shared" ref="I78:T78" si="46">I61/I59</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.89271255060728749</v>
+      </c>
+      <c r="K78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.45533769063180829</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.40122199592668023</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.4045850823377462</v>
+      </c>
+      <c r="N78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.18381530595941845</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.22627949888316987</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.12811009029612397</v>
+      </c>
+      <c r="Q78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.25499758181525067</v>
+      </c>
+      <c r="R78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.12157926461723931</v>
+      </c>
+      <c r="S78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.16737162676592504</v>
+      </c>
+      <c r="T78" s="3">
+        <f t="shared" si="46"/>
+        <v>0.19497553697213643</v>
+      </c>
+      <c r="U78" s="3">
+        <f>U61/U59</f>
+        <v>0.17563464620055663</v>
+      </c>
+      <c r="V78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="23" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="3" t="e">
+        <f>H53/H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81" s="3" t="e">
+        <f t="shared" ref="I81:T81" si="47">I53/I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.27490666142660641</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.1797510162601626</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.21386170383442965</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.26863007585899151</v>
+      </c>
+      <c r="N81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.21416166148057023</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.19073623102846038</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.18397865253053475</v>
+      </c>
+      <c r="Q81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.19237025616362788</v>
+      </c>
+      <c r="R81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.21458733205374281</v>
+      </c>
+      <c r="S81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.20906647219937419</v>
+      </c>
+      <c r="T81" s="3">
+        <f t="shared" si="47"/>
+        <v>0.30304693462768739</v>
+      </c>
+      <c r="U81" s="3">
+        <f>U53/U$50</f>
+        <v>0.28526634149234259</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H82" s="3" t="e">
+        <f>H54/H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="3" t="e">
+        <f t="shared" ref="I82:T82" si="48">I54/I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.17606602475928473</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.12665142276422764</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.13476656505695492</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.15199687639446677</v>
+      </c>
+      <c r="N82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.13647876112598595</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.1162275846800974</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.14051362871163006</v>
+      </c>
+      <c r="Q82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.139694753667058</v>
+      </c>
+      <c r="R82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.13483394404699586</v>
+      </c>
+      <c r="S82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.11908012448167965</v>
+      </c>
+      <c r="T82" s="3">
+        <f t="shared" si="48"/>
+        <v>0.13088183587887728</v>
+      </c>
+      <c r="U82" s="3">
+        <f>U54/U$50</f>
+        <v>9.118471186490934E-2</v>
+      </c>
+      <c r="V82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="W82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="X82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AC82" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H83" s="3" t="e">
+        <f>H55/H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="3" t="e">
+        <f t="shared" ref="I83:T83" si="49">I55/I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="49"/>
+        <v>0.17528001572018079</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="49"/>
+        <v>9.921239837398374E-2</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" si="49"/>
+        <v>7.8052302262153053E-2</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="49"/>
+        <v>7.2233377956269523E-2</v>
+      </c>
+      <c r="N83" s="3">
+        <f t="shared" si="49"/>
+        <v>6.2631159997105432E-2</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="49"/>
+        <v>6.1914249870858237E-2</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="49"/>
+        <v>6.1803789534009099E-2</v>
+      </c>
+      <c r="Q83" s="3">
+        <f t="shared" si="49"/>
+        <v>0.14802608314355631</v>
+      </c>
+      <c r="R83" s="3">
+        <f t="shared" si="49"/>
+        <v>7.6356656778921658E-2</v>
+      </c>
+      <c r="S83" s="3">
+        <f t="shared" si="49"/>
+        <v>8.3346759490880107E-2</v>
+      </c>
+      <c r="T83" s="3">
+        <f t="shared" si="49"/>
+        <v>0.10133008601394404</v>
+      </c>
+      <c r="U83" s="3">
+        <f>U55/U$50</f>
+        <v>8.4565091696194278E-2</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AE85" s="60" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF85" s="60"/>
+      <c r="AG85" s="60"/>
+      <c r="AH85" s="60"/>
+    </row>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AE86" s="60" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AE87" s="60" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AE88" s="60" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AF88" s="66">
+        <f>NPV(AF87,AC62:BU62)</f>
+        <v>1063949.3290765383</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AE89" s="60" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AF89" s="66">
+        <f>AF88/V66</f>
+        <v>413.34472769096283</v>
+      </c>
+    </row>
+    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AE90" s="60" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AF90" s="67" cm="1">
+        <f t="array" ref="AF90">_FV(AE85,"Price")</f>
+        <v>465.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
@@ -22042,7 +26813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -23406,7 +28177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -25056,7 +29827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
